--- a/tables_excel/CCE 3rd -5th - Fall 2018 -28-9-2018-converted.xlsx
+++ b/tables_excel/CCE 3rd -5th - Fall 2018 -28-9-2018-converted.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\django\Database-Filler\tables_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE338B3E-BE26-4E6B-B37F-A51335F1142A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44C5BAAE-0E98-4624-8BE3-8116F84C6E65}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="174">
   <si>
     <r>
       <rPr>
@@ -1955,6 +1955,9 @@
   </si>
   <si>
     <t>Fall 2018</t>
+  </si>
+  <si>
+    <t>Discrete Structures .-Tut-Place:Class 703</t>
   </si>
 </sst>
 </file>
@@ -2260,7 +2263,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2294,47 +2297,401 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="8"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="8"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="8"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2348,359 +2705,8 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="8"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="8"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="8"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8641,8 +8647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:W71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="340" zoomScaleNormal="340" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9:E10"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="340" zoomScaleNormal="340" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44:E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -8674,139 +8680,139 @@
   <sheetData>
     <row r="1" spans="1:23" ht="6.75" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="125"/>
-      <c r="C1" s="126"/>
-      <c r="D1" s="127" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="51" t="s">
         <v>172</v>
       </c>
-      <c r="E1" s="124"/>
-      <c r="F1" s="123" t="s">
+      <c r="E1" s="29"/>
+      <c r="F1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="124"/>
-      <c r="H1" s="123" t="s">
+      <c r="G1" s="29"/>
+      <c r="H1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="124"/>
-      <c r="J1" s="123" t="s">
+      <c r="I1" s="29"/>
+      <c r="J1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="124"/>
-      <c r="L1" s="123" t="s">
+      <c r="K1" s="29"/>
+      <c r="L1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="124"/>
-      <c r="N1" s="123" t="s">
+      <c r="M1" s="29"/>
+      <c r="N1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="124"/>
-      <c r="P1" s="123" t="s">
+      <c r="O1" s="29"/>
+      <c r="P1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="124"/>
-      <c r="R1" s="123" t="s">
+      <c r="Q1" s="29"/>
+      <c r="R1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="S1" s="124"/>
-      <c r="T1" s="123" t="s">
+      <c r="S1" s="29"/>
+      <c r="T1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="U1" s="124"/>
-      <c r="V1" s="123" t="s">
+      <c r="U1" s="29"/>
+      <c r="V1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="W1" s="124"/>
+      <c r="W1" s="29"/>
     </row>
     <row r="2" spans="1:23" ht="6.75" customHeight="1">
-      <c r="A2" s="130" t="s">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="133" t="s">
+      <c r="B2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="134"/>
-      <c r="D2" s="139" t="s">
+      <c r="C2" s="15"/>
+      <c r="D2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="140"/>
-      <c r="F2" s="140"/>
-      <c r="G2" s="141"/>
-      <c r="H2" s="142" t="s">
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="143"/>
-      <c r="J2" s="143"/>
-      <c r="K2" s="144"/>
-      <c r="L2" s="145" t="s">
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="146"/>
-      <c r="N2" s="139" t="s">
+      <c r="M2" s="27"/>
+      <c r="N2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="140"/>
-      <c r="P2" s="140"/>
-      <c r="Q2" s="141"/>
-      <c r="R2" s="142" t="s">
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="143"/>
-      <c r="T2" s="143"/>
-      <c r="U2" s="144"/>
-      <c r="V2" s="145" t="s">
+      <c r="S2" s="24"/>
+      <c r="T2" s="24"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="W2" s="146"/>
+      <c r="W2" s="27"/>
     </row>
     <row r="3" spans="1:23" ht="6.75" customHeight="1">
-      <c r="A3" s="131"/>
-      <c r="B3" s="135"/>
-      <c r="C3" s="136"/>
-      <c r="D3" s="123" t="s">
+      <c r="A3" s="12"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="124"/>
-      <c r="F3" s="123" t="s">
+      <c r="E3" s="29"/>
+      <c r="F3" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="124"/>
-      <c r="H3" s="123" t="s">
+      <c r="G3" s="29"/>
+      <c r="H3" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="124"/>
-      <c r="J3" s="123" t="s">
+      <c r="I3" s="29"/>
+      <c r="J3" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="124"/>
-      <c r="L3" s="123" t="s">
+      <c r="K3" s="29"/>
+      <c r="L3" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="124"/>
-      <c r="N3" s="123" t="s">
+      <c r="M3" s="29"/>
+      <c r="N3" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="124"/>
-      <c r="P3" s="123" t="s">
+      <c r="O3" s="29"/>
+      <c r="P3" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="124"/>
-      <c r="R3" s="123" t="s">
+      <c r="Q3" s="29"/>
+      <c r="R3" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="S3" s="124"/>
-      <c r="T3" s="123" t="s">
+      <c r="S3" s="29"/>
+      <c r="T3" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U3" s="124"/>
-      <c r="V3" s="123" t="s">
+      <c r="U3" s="29"/>
+      <c r="V3" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="W3" s="124"/>
+      <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="6.75" customHeight="1">
-      <c r="A4" s="132"/>
-      <c r="B4" s="137"/>
-      <c r="C4" s="138"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="19"/>
       <c r="D4" s="3">
         <v>1</v>
       </c>
@@ -8869,357 +8875,357 @@
       </c>
     </row>
     <row r="5" spans="1:23" ht="6.75" customHeight="1">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="56" t="s">
+      <c r="C5" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="128" t="s">
+      <c r="D5" s="37" t="s">
         <v>171</v>
       </c>
-      <c r="E5" s="129"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="33" t="s">
+      <c r="E5" s="38"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="O5" s="34"/>
-      <c r="P5" s="31" t="s">
+      <c r="O5" s="55"/>
+      <c r="P5" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="Q5" s="32"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="121" t="s">
+      <c r="Q5" s="61"/>
+      <c r="R5" s="39"/>
+      <c r="S5" s="39"/>
+      <c r="T5" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="U5" s="11"/>
-      <c r="V5" s="11"/>
-      <c r="W5" s="11"/>
+      <c r="U5" s="39"/>
+      <c r="V5" s="39"/>
+      <c r="W5" s="39"/>
     </row>
     <row r="6" spans="1:23" ht="6.75" customHeight="1">
-      <c r="A6" s="54"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="74" t="s">
+      <c r="A6" s="31"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="75"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="33" t="s">
+      <c r="E6" s="53"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="O6" s="34"/>
-      <c r="P6" s="74" t="s">
+      <c r="O6" s="55"/>
+      <c r="P6" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="Q6" s="75"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="122"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
+      <c r="Q6" s="53"/>
+      <c r="R6" s="40"/>
+      <c r="S6" s="40"/>
+      <c r="T6" s="48"/>
+      <c r="U6" s="40"/>
+      <c r="V6" s="40"/>
+      <c r="W6" s="40"/>
     </row>
     <row r="7" spans="1:23" ht="6.75" customHeight="1">
-      <c r="A7" s="54"/>
-      <c r="B7" s="15" t="s">
+      <c r="A7" s="31"/>
+      <c r="B7" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="115" t="s">
+      <c r="D7" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="116"/>
-      <c r="F7" s="11"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="39"/>
       <c r="G7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="31" t="s">
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="K7" s="32"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="31" t="s">
+      <c r="K7" s="61"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="O7" s="32"/>
-      <c r="P7" s="99" t="s">
+      <c r="O7" s="61"/>
+      <c r="P7" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="Q7" s="100"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="117" t="s">
+      <c r="Q7" s="63"/>
+      <c r="R7" s="39"/>
+      <c r="S7" s="39"/>
+      <c r="T7" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="U7" s="118"/>
-      <c r="V7" s="11"/>
-      <c r="W7" s="11"/>
+      <c r="U7" s="67"/>
+      <c r="V7" s="39"/>
+      <c r="W7" s="39"/>
     </row>
     <row r="8" spans="1:23" ht="6.75" customHeight="1">
-      <c r="A8" s="54"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="74" t="s">
+      <c r="A8" s="31"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="75"/>
-      <c r="F8" s="12"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="40"/>
       <c r="G8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="74" t="s">
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="75"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="74" t="s">
+      <c r="K8" s="53"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="O8" s="75"/>
-      <c r="P8" s="101"/>
-      <c r="Q8" s="102"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="119" t="s">
+      <c r="O8" s="53"/>
+      <c r="P8" s="64"/>
+      <c r="Q8" s="65"/>
+      <c r="R8" s="40"/>
+      <c r="S8" s="40"/>
+      <c r="T8" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="U8" s="120"/>
-      <c r="V8" s="12"/>
-      <c r="W8" s="12"/>
+      <c r="U8" s="69"/>
+      <c r="V8" s="40"/>
+      <c r="W8" s="40"/>
     </row>
     <row r="9" spans="1:23" ht="6.75" customHeight="1">
-      <c r="A9" s="54"/>
-      <c r="B9" s="15" t="s">
+      <c r="A9" s="31"/>
+      <c r="B9" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="56" t="s">
+      <c r="C9" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="64" t="s">
+      <c r="D9" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="65"/>
-      <c r="F9" s="64" t="s">
+      <c r="E9" s="71"/>
+      <c r="F9" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="65"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="74" t="s">
+      <c r="G9" s="71"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="K9" s="75"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
       <c r="N9" s="8" t="s">
         <v>37</v>
       </c>
       <c r="O9" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="P9" s="107" t="s">
+      <c r="P9" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="Q9" s="108"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="111" t="s">
+      <c r="Q9" s="75"/>
+      <c r="R9" s="39"/>
+      <c r="S9" s="39"/>
+      <c r="T9" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="U9" s="112"/>
-      <c r="V9" s="11"/>
-      <c r="W9" s="11"/>
+      <c r="U9" s="79"/>
+      <c r="V9" s="39"/>
+      <c r="W9" s="39"/>
     </row>
     <row r="10" spans="1:23" ht="6.75" customHeight="1">
-      <c r="A10" s="54"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="67"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="21" t="s">
+      <c r="A10" s="31"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="K10" s="22"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
+      <c r="K10" s="83"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
       <c r="N10" s="5" t="s">
         <v>42</v>
       </c>
       <c r="O10" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="P10" s="109"/>
-      <c r="Q10" s="110"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="12"/>
-      <c r="T10" s="113"/>
-      <c r="U10" s="114"/>
-      <c r="V10" s="12"/>
-      <c r="W10" s="12"/>
+      <c r="P10" s="76"/>
+      <c r="Q10" s="77"/>
+      <c r="R10" s="40"/>
+      <c r="S10" s="40"/>
+      <c r="T10" s="80"/>
+      <c r="U10" s="81"/>
+      <c r="V10" s="40"/>
+      <c r="W10" s="40"/>
     </row>
     <row r="11" spans="1:23" ht="6.75" customHeight="1">
-      <c r="A11" s="54"/>
-      <c r="B11" s="23" t="s">
+      <c r="A11" s="31"/>
+      <c r="B11" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="115" t="s">
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="116"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="80" t="s">
+      <c r="G11" s="59"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="84" t="s">
         <v>46</v>
       </c>
-      <c r="K11" s="81"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
+      <c r="K11" s="85"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="39"/>
+      <c r="O11" s="39"/>
       <c r="P11" s="5" t="s">
         <v>47</v>
       </c>
       <c r="Q11" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="R11" s="11"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="11"/>
-      <c r="U11" s="11"/>
-      <c r="V11" s="11"/>
-      <c r="W11" s="11"/>
+      <c r="R11" s="39"/>
+      <c r="S11" s="39"/>
+      <c r="T11" s="39"/>
+      <c r="U11" s="39"/>
+      <c r="V11" s="39"/>
+      <c r="W11" s="39"/>
     </row>
     <row r="12" spans="1:23" ht="6.75" customHeight="1">
-      <c r="A12" s="54"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="74" t="s">
+      <c r="A12" s="31"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="G12" s="75"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="82"/>
-      <c r="K12" s="83"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="86"/>
+      <c r="K12" s="87"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="40"/>
       <c r="P12" s="5" t="s">
         <v>42</v>
       </c>
       <c r="Q12" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="R12" s="12"/>
-      <c r="S12" s="12"/>
-      <c r="T12" s="12"/>
-      <c r="U12" s="12"/>
-      <c r="V12" s="12"/>
-      <c r="W12" s="12"/>
+      <c r="R12" s="40"/>
+      <c r="S12" s="40"/>
+      <c r="T12" s="40"/>
+      <c r="U12" s="40"/>
+      <c r="V12" s="40"/>
+      <c r="W12" s="40"/>
     </row>
     <row r="13" spans="1:23" ht="6.75" customHeight="1">
-      <c r="A13" s="54"/>
-      <c r="B13" s="15" t="s">
+      <c r="A13" s="31"/>
+      <c r="B13" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="78" t="s">
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="G13" s="79"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
       <c r="K13" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="11"/>
-      <c r="T13" s="11"/>
-      <c r="U13" s="11"/>
-      <c r="V13" s="11"/>
-      <c r="W13" s="11"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="39"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="39"/>
+      <c r="R13" s="39"/>
+      <c r="S13" s="39"/>
+      <c r="T13" s="39"/>
+      <c r="U13" s="39"/>
+      <c r="V13" s="39"/>
+      <c r="W13" s="39"/>
     </row>
     <row r="14" spans="1:23" ht="6.75" customHeight="1">
-      <c r="A14" s="54"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="13" t="s">
+      <c r="A14" s="31"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="90" t="s">
         <v>53</v>
       </c>
-      <c r="G14" s="14"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
+      <c r="G14" s="91"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
       <c r="K14" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="12"/>
-      <c r="U14" s="12"/>
-      <c r="V14" s="12"/>
-      <c r="W14" s="12"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="40"/>
+      <c r="Q14" s="40"/>
+      <c r="R14" s="40"/>
+      <c r="S14" s="40"/>
+      <c r="T14" s="40"/>
+      <c r="U14" s="40"/>
+      <c r="V14" s="40"/>
+      <c r="W14" s="40"/>
     </row>
     <row r="15" spans="1:23" ht="7.5" customHeight="1">
-      <c r="A15" s="55"/>
+      <c r="A15" s="32"/>
       <c r="B15" s="9" t="s">
         <v>54</v>
       </c>
@@ -9248,841 +9254,841 @@
       <c r="W15" s="1"/>
     </row>
     <row r="16" spans="1:23" ht="6.75" customHeight="1">
-      <c r="A16" s="53" t="s">
+      <c r="A16" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="56" t="s">
+      <c r="C16" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
       <c r="J16" s="7" t="s">
         <v>57</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="19" t="s">
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="92" t="s">
         <v>59</v>
       </c>
-      <c r="O16" s="20"/>
-      <c r="P16" s="31" t="s">
+      <c r="O16" s="93"/>
+      <c r="P16" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="Q16" s="32"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="11"/>
-      <c r="T16" s="11"/>
-      <c r="U16" s="11"/>
-      <c r="V16" s="11"/>
-      <c r="W16" s="11"/>
+      <c r="Q16" s="61"/>
+      <c r="R16" s="39"/>
+      <c r="S16" s="39"/>
+      <c r="T16" s="39"/>
+      <c r="U16" s="39"/>
+      <c r="V16" s="39"/>
+      <c r="W16" s="39"/>
     </row>
     <row r="17" spans="1:23" ht="6.75" customHeight="1">
-      <c r="A17" s="54"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
+      <c r="A17" s="31"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
       <c r="J17" s="7" t="s">
         <v>60</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="74" t="s">
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="O17" s="75"/>
-      <c r="P17" s="74" t="s">
+      <c r="O17" s="53"/>
+      <c r="P17" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="Q17" s="75"/>
-      <c r="R17" s="12"/>
-      <c r="S17" s="12"/>
-      <c r="T17" s="12"/>
-      <c r="U17" s="12"/>
-      <c r="V17" s="12"/>
-      <c r="W17" s="12"/>
+      <c r="Q17" s="53"/>
+      <c r="R17" s="40"/>
+      <c r="S17" s="40"/>
+      <c r="T17" s="40"/>
+      <c r="U17" s="40"/>
+      <c r="V17" s="40"/>
+      <c r="W17" s="40"/>
     </row>
     <row r="18" spans="1:23" ht="6.75" customHeight="1">
-      <c r="A18" s="54"/>
-      <c r="B18" s="15" t="s">
+      <c r="A18" s="31"/>
+      <c r="B18" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="35" t="s">
+      <c r="C18" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="64" t="s">
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="70" t="s">
         <v>62</v>
       </c>
-      <c r="G18" s="65"/>
+      <c r="G18" s="71"/>
       <c r="H18" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I18" s="11"/>
-      <c r="J18" s="33" t="s">
+      <c r="I18" s="39"/>
+      <c r="J18" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="K18" s="34"/>
-      <c r="L18" s="49" t="s">
+      <c r="K18" s="55"/>
+      <c r="L18" s="94" t="s">
         <v>64</v>
       </c>
-      <c r="M18" s="50"/>
-      <c r="N18" s="58" t="s">
+      <c r="M18" s="95"/>
+      <c r="N18" s="96" t="s">
         <v>65</v>
       </c>
-      <c r="O18" s="59"/>
-      <c r="P18" s="33" t="s">
+      <c r="O18" s="97"/>
+      <c r="P18" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="Q18" s="34"/>
-      <c r="R18" s="58" t="s">
+      <c r="Q18" s="55"/>
+      <c r="R18" s="96" t="s">
         <v>65</v>
       </c>
-      <c r="S18" s="59"/>
-      <c r="T18" s="72" t="s">
+      <c r="S18" s="97"/>
+      <c r="T18" s="100" t="s">
         <v>67</v>
       </c>
-      <c r="U18" s="73"/>
-      <c r="V18" s="11"/>
-      <c r="W18" s="11"/>
+      <c r="U18" s="101"/>
+      <c r="V18" s="39"/>
+      <c r="W18" s="39"/>
     </row>
     <row r="19" spans="1:23" ht="6.75" customHeight="1">
-      <c r="A19" s="54"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="67"/>
+      <c r="A19" s="31"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="73"/>
       <c r="H19" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="I19" s="12"/>
-      <c r="J19" s="13" t="s">
+      <c r="I19" s="40"/>
+      <c r="J19" s="90" t="s">
         <v>69</v>
       </c>
-      <c r="K19" s="14"/>
-      <c r="L19" s="13" t="s">
+      <c r="K19" s="91"/>
+      <c r="L19" s="90" t="s">
         <v>70</v>
       </c>
-      <c r="M19" s="14"/>
-      <c r="N19" s="60"/>
-      <c r="O19" s="61"/>
-      <c r="P19" s="13" t="s">
+      <c r="M19" s="91"/>
+      <c r="N19" s="98"/>
+      <c r="O19" s="99"/>
+      <c r="P19" s="90" t="s">
         <v>71</v>
       </c>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="60"/>
-      <c r="S19" s="61"/>
-      <c r="T19" s="74" t="s">
+      <c r="Q19" s="91"/>
+      <c r="R19" s="98"/>
+      <c r="S19" s="99"/>
+      <c r="T19" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="U19" s="75"/>
-      <c r="V19" s="12"/>
-      <c r="W19" s="12"/>
+      <c r="U19" s="53"/>
+      <c r="V19" s="40"/>
+      <c r="W19" s="40"/>
     </row>
     <row r="20" spans="1:23" ht="6.75" customHeight="1">
-      <c r="A20" s="54"/>
-      <c r="B20" s="15" t="s">
+      <c r="A20" s="31"/>
+      <c r="B20" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="56" t="s">
+      <c r="C20" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="19" t="s">
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="92" t="s">
         <v>73</v>
       </c>
-      <c r="G20" s="20"/>
-      <c r="H20" s="49" t="s">
+      <c r="G20" s="93"/>
+      <c r="H20" s="94" t="s">
         <v>74</v>
       </c>
-      <c r="I20" s="50"/>
-      <c r="J20" s="99" t="s">
+      <c r="I20" s="95"/>
+      <c r="J20" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="K20" s="100"/>
-      <c r="L20" s="99" t="s">
+      <c r="K20" s="63"/>
+      <c r="L20" s="62" t="s">
         <v>76</v>
       </c>
-      <c r="M20" s="100"/>
-      <c r="N20" s="31" t="s">
+      <c r="M20" s="63"/>
+      <c r="N20" s="60" t="s">
         <v>66</v>
       </c>
-      <c r="O20" s="32"/>
-      <c r="P20" s="72" t="s">
+      <c r="O20" s="61"/>
+      <c r="P20" s="100" t="s">
         <v>77</v>
       </c>
-      <c r="Q20" s="73"/>
-      <c r="R20" s="31" t="s">
+      <c r="Q20" s="101"/>
+      <c r="R20" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="S20" s="32"/>
-      <c r="T20" s="99" t="s">
+      <c r="S20" s="61"/>
+      <c r="T20" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="U20" s="100"/>
-      <c r="V20" s="99" t="s">
+      <c r="U20" s="63"/>
+      <c r="V20" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="W20" s="100"/>
+      <c r="W20" s="63"/>
     </row>
     <row r="21" spans="1:23" ht="6.75" customHeight="1">
-      <c r="A21" s="54"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="74" t="s">
+      <c r="A21" s="31"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="G21" s="75"/>
-      <c r="H21" s="13" t="s">
+      <c r="G21" s="53"/>
+      <c r="H21" s="90" t="s">
         <v>80</v>
       </c>
-      <c r="I21" s="14"/>
-      <c r="J21" s="101"/>
-      <c r="K21" s="102"/>
-      <c r="L21" s="101"/>
-      <c r="M21" s="102"/>
-      <c r="N21" s="13" t="s">
+      <c r="I21" s="91"/>
+      <c r="J21" s="64"/>
+      <c r="K21" s="65"/>
+      <c r="L21" s="64"/>
+      <c r="M21" s="65"/>
+      <c r="N21" s="90" t="s">
         <v>71</v>
       </c>
-      <c r="O21" s="14"/>
-      <c r="P21" s="72" t="s">
+      <c r="O21" s="91"/>
+      <c r="P21" s="100" t="s">
         <v>81</v>
       </c>
-      <c r="Q21" s="73"/>
-      <c r="R21" s="74" t="s">
+      <c r="Q21" s="101"/>
+      <c r="R21" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="S21" s="75"/>
-      <c r="T21" s="101"/>
-      <c r="U21" s="102"/>
-      <c r="V21" s="101"/>
-      <c r="W21" s="102"/>
+      <c r="S21" s="53"/>
+      <c r="T21" s="64"/>
+      <c r="U21" s="65"/>
+      <c r="V21" s="64"/>
+      <c r="W21" s="65"/>
     </row>
     <row r="22" spans="1:23" ht="6.75" customHeight="1">
-      <c r="A22" s="54"/>
-      <c r="B22" s="23" t="s">
+      <c r="A22" s="31"/>
+      <c r="B22" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="11"/>
+      <c r="D22" s="39"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="76" t="s">
+      <c r="F22" s="102" t="s">
         <v>82</v>
       </c>
-      <c r="G22" s="77"/>
-      <c r="H22" s="72" t="s">
+      <c r="G22" s="103"/>
+      <c r="H22" s="100" t="s">
         <v>83</v>
       </c>
-      <c r="I22" s="73"/>
+      <c r="I22" s="101"/>
       <c r="J22" s="7" t="s">
         <v>58</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="L22" s="33" t="s">
+      <c r="L22" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="M22" s="34"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="11"/>
+      <c r="M22" s="55"/>
+      <c r="N22" s="39"/>
+      <c r="O22" s="39"/>
+      <c r="P22" s="39"/>
+      <c r="Q22" s="39"/>
       <c r="R22" s="5" t="s">
         <v>47</v>
       </c>
       <c r="S22" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="T22" s="76" t="s">
+      <c r="T22" s="102" t="s">
         <v>77</v>
       </c>
-      <c r="U22" s="77"/>
-      <c r="V22" s="72" t="s">
+      <c r="U22" s="103"/>
+      <c r="V22" s="100" t="s">
         <v>67</v>
       </c>
-      <c r="W22" s="73"/>
+      <c r="W22" s="101"/>
     </row>
     <row r="23" spans="1:23" ht="6.75" customHeight="1">
-      <c r="A23" s="54"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="12"/>
+      <c r="A23" s="31"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="40"/>
       <c r="E23" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="F23" s="68" t="s">
+      <c r="F23" s="104" t="s">
         <v>36</v>
       </c>
-      <c r="G23" s="69"/>
-      <c r="H23" s="13" t="s">
+      <c r="G23" s="105"/>
+      <c r="H23" s="90" t="s">
         <v>85</v>
       </c>
-      <c r="I23" s="14"/>
+      <c r="I23" s="91"/>
       <c r="J23" s="7" t="s">
         <v>30</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="L23" s="13" t="s">
+      <c r="L23" s="90" t="s">
         <v>87</v>
       </c>
-      <c r="M23" s="14"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="12"/>
-      <c r="Q23" s="12"/>
+      <c r="M23" s="91"/>
+      <c r="N23" s="40"/>
+      <c r="O23" s="40"/>
+      <c r="P23" s="40"/>
+      <c r="Q23" s="40"/>
       <c r="R23" s="5" t="s">
         <v>42</v>
       </c>
       <c r="S23" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="T23" s="76" t="s">
+      <c r="T23" s="102" t="s">
         <v>81</v>
       </c>
-      <c r="U23" s="77"/>
-      <c r="V23" s="74" t="s">
+      <c r="U23" s="103"/>
+      <c r="V23" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="W23" s="75"/>
+      <c r="W23" s="53"/>
     </row>
     <row r="24" spans="1:23" ht="6.75" customHeight="1">
-      <c r="A24" s="54"/>
-      <c r="B24" s="15" t="s">
+      <c r="A24" s="31"/>
+      <c r="B24" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="D24" s="62" t="s">
+      <c r="D24" s="88" t="s">
         <v>89</v>
       </c>
-      <c r="E24" s="63"/>
+      <c r="E24" s="89"/>
       <c r="F24" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G24" s="11"/>
-      <c r="H24" s="58" t="s">
+      <c r="G24" s="39"/>
+      <c r="H24" s="96" t="s">
         <v>90</v>
       </c>
-      <c r="I24" s="59"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
+      <c r="I24" s="97"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
       <c r="L24" s="7" t="s">
         <v>57</v>
       </c>
       <c r="M24" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="N24" s="11"/>
-      <c r="O24" s="11"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="11"/>
+      <c r="N24" s="39"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="39"/>
       <c r="R24" s="8" t="s">
         <v>38</v>
       </c>
       <c r="S24" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="T24" s="11"/>
-      <c r="U24" s="11"/>
-      <c r="V24" s="76" t="s">
+      <c r="T24" s="39"/>
+      <c r="U24" s="39"/>
+      <c r="V24" s="102" t="s">
         <v>77</v>
       </c>
-      <c r="W24" s="77"/>
+      <c r="W24" s="103"/>
     </row>
     <row r="25" spans="1:23" ht="6.75" customHeight="1">
-      <c r="A25" s="54"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="13" t="s">
+      <c r="A25" s="31"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="90" t="s">
         <v>91</v>
       </c>
-      <c r="E25" s="14"/>
+      <c r="E25" s="91"/>
       <c r="F25" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G25" s="12"/>
-      <c r="H25" s="60"/>
-      <c r="I25" s="61"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="98"/>
+      <c r="I25" s="99"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
       <c r="L25" s="7" t="s">
         <v>86</v>
       </c>
       <c r="M25" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="N25" s="12"/>
-      <c r="O25" s="12"/>
-      <c r="P25" s="12"/>
-      <c r="Q25" s="12"/>
+      <c r="N25" s="40"/>
+      <c r="O25" s="40"/>
+      <c r="P25" s="40"/>
+      <c r="Q25" s="40"/>
       <c r="R25" s="5" t="s">
         <v>88</v>
       </c>
       <c r="S25" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="T25" s="12"/>
-      <c r="U25" s="12"/>
-      <c r="V25" s="76" t="s">
+      <c r="T25" s="40"/>
+      <c r="U25" s="40"/>
+      <c r="V25" s="102" t="s">
         <v>81</v>
       </c>
-      <c r="W25" s="77"/>
+      <c r="W25" s="103"/>
     </row>
     <row r="26" spans="1:23" ht="6.75" customHeight="1">
-      <c r="A26" s="54"/>
-      <c r="B26" s="103" t="s">
+      <c r="A26" s="31"/>
+      <c r="B26" s="106" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="105" t="s">
+      <c r="D26" s="108" t="s">
         <v>92</v>
       </c>
-      <c r="E26" s="106"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="11"/>
-      <c r="R26" s="11"/>
-      <c r="S26" s="11"/>
-      <c r="T26" s="11"/>
-      <c r="U26" s="11"/>
-      <c r="V26" s="11"/>
-      <c r="W26" s="11"/>
+      <c r="E26" s="109"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="39"/>
+      <c r="M26" s="39"/>
+      <c r="N26" s="39"/>
+      <c r="O26" s="39"/>
+      <c r="P26" s="39"/>
+      <c r="Q26" s="39"/>
+      <c r="R26" s="39"/>
+      <c r="S26" s="39"/>
+      <c r="T26" s="39"/>
+      <c r="U26" s="39"/>
+      <c r="V26" s="39"/>
+      <c r="W26" s="39"/>
     </row>
     <row r="27" spans="1:23" ht="6.75" customHeight="1">
-      <c r="A27" s="55"/>
-      <c r="B27" s="104"/>
-      <c r="C27" s="18"/>
+      <c r="A27" s="32"/>
+      <c r="B27" s="107"/>
+      <c r="C27" s="44"/>
       <c r="D27" s="7" t="s">
         <v>93</v>
       </c>
       <c r="E27" s="1"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="12"/>
-      <c r="O27" s="12"/>
-      <c r="P27" s="12"/>
-      <c r="Q27" s="12"/>
-      <c r="R27" s="12"/>
-      <c r="S27" s="12"/>
-      <c r="T27" s="12"/>
-      <c r="U27" s="12"/>
-      <c r="V27" s="12"/>
-      <c r="W27" s="12"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="40"/>
+      <c r="N27" s="40"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="40"/>
+      <c r="Q27" s="40"/>
+      <c r="R27" s="40"/>
+      <c r="S27" s="40"/>
+      <c r="T27" s="40"/>
+      <c r="U27" s="40"/>
+      <c r="V27" s="40"/>
+      <c r="W27" s="40"/>
     </row>
     <row r="28" spans="1:23" ht="6.75" customHeight="1">
-      <c r="A28" s="53" t="s">
+      <c r="A28" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="56" t="s">
+      <c r="C28" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="97" t="s">
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="110" t="s">
         <v>23</v>
       </c>
-      <c r="K28" s="98"/>
-      <c r="L28" s="37" t="s">
+      <c r="K28" s="111"/>
+      <c r="L28" s="112" t="s">
         <v>62</v>
       </c>
-      <c r="M28" s="38"/>
-      <c r="N28" s="84" t="s">
+      <c r="M28" s="113"/>
+      <c r="N28" s="116" t="s">
         <v>95</v>
       </c>
-      <c r="O28" s="85"/>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="11"/>
-      <c r="R28" s="31" t="s">
+      <c r="O28" s="117"/>
+      <c r="P28" s="39"/>
+      <c r="Q28" s="39"/>
+      <c r="R28" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="S28" s="32"/>
-      <c r="T28" s="33" t="s">
+      <c r="S28" s="61"/>
+      <c r="T28" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="U28" s="34"/>
-      <c r="V28" s="11"/>
-      <c r="W28" s="11"/>
+      <c r="U28" s="55"/>
+      <c r="V28" s="39"/>
+      <c r="W28" s="39"/>
     </row>
     <row r="29" spans="1:23" ht="6.75" customHeight="1">
-      <c r="A29" s="54"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="74" t="s">
+      <c r="A29" s="31"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="52" t="s">
         <v>96</v>
       </c>
-      <c r="K29" s="75"/>
-      <c r="L29" s="39"/>
-      <c r="M29" s="40"/>
-      <c r="N29" s="86"/>
-      <c r="O29" s="87"/>
-      <c r="P29" s="12"/>
-      <c r="Q29" s="12"/>
-      <c r="R29" s="74" t="s">
+      <c r="K29" s="53"/>
+      <c r="L29" s="114"/>
+      <c r="M29" s="115"/>
+      <c r="N29" s="118"/>
+      <c r="O29" s="119"/>
+      <c r="P29" s="40"/>
+      <c r="Q29" s="40"/>
+      <c r="R29" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="S29" s="75"/>
-      <c r="T29" s="74" t="s">
+      <c r="S29" s="53"/>
+      <c r="T29" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="U29" s="75"/>
-      <c r="V29" s="12"/>
-      <c r="W29" s="12"/>
+      <c r="U29" s="53"/>
+      <c r="V29" s="40"/>
+      <c r="W29" s="40"/>
     </row>
     <row r="30" spans="1:23" ht="6.75" customHeight="1">
-      <c r="A30" s="54"/>
-      <c r="B30" s="15" t="s">
+      <c r="A30" s="31"/>
+      <c r="B30" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="35" t="s">
+      <c r="C30" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="64" t="s">
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="K30" s="65"/>
-      <c r="L30" s="64" t="s">
+      <c r="K30" s="71"/>
+      <c r="L30" s="70" t="s">
         <v>98</v>
       </c>
-      <c r="M30" s="65"/>
-      <c r="N30" s="31" t="s">
+      <c r="M30" s="71"/>
+      <c r="N30" s="60" t="s">
         <v>99</v>
       </c>
-      <c r="O30" s="32"/>
-      <c r="P30" s="11"/>
-      <c r="Q30" s="11"/>
-      <c r="R30" s="72" t="s">
+      <c r="O30" s="61"/>
+      <c r="P30" s="39"/>
+      <c r="Q30" s="39"/>
+      <c r="R30" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="S30" s="73"/>
-      <c r="T30" s="99" t="s">
+      <c r="S30" s="101"/>
+      <c r="T30" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="U30" s="100"/>
-      <c r="V30" s="99" t="s">
+      <c r="U30" s="63"/>
+      <c r="V30" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="W30" s="100"/>
+      <c r="W30" s="63"/>
     </row>
     <row r="31" spans="1:23" ht="6.75" customHeight="1">
-      <c r="A31" s="54"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="66"/>
-      <c r="K31" s="67"/>
-      <c r="L31" s="66"/>
-      <c r="M31" s="67"/>
-      <c r="N31" s="74" t="s">
+      <c r="A31" s="31"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="72"/>
+      <c r="K31" s="73"/>
+      <c r="L31" s="72"/>
+      <c r="M31" s="73"/>
+      <c r="N31" s="52" t="s">
         <v>100</v>
       </c>
-      <c r="O31" s="75"/>
-      <c r="P31" s="12"/>
-      <c r="Q31" s="12"/>
-      <c r="R31" s="72" t="s">
+      <c r="O31" s="53"/>
+      <c r="P31" s="40"/>
+      <c r="Q31" s="40"/>
+      <c r="R31" s="100" t="s">
         <v>101</v>
       </c>
-      <c r="S31" s="73"/>
-      <c r="T31" s="101"/>
-      <c r="U31" s="102"/>
-      <c r="V31" s="101"/>
-      <c r="W31" s="102"/>
+      <c r="S31" s="101"/>
+      <c r="T31" s="64"/>
+      <c r="U31" s="65"/>
+      <c r="V31" s="64"/>
+      <c r="W31" s="65"/>
     </row>
     <row r="32" spans="1:23" ht="6.75" customHeight="1">
-      <c r="A32" s="54"/>
-      <c r="B32" s="15" t="s">
+      <c r="A32" s="31"/>
+      <c r="B32" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="56" t="s">
+      <c r="C32" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
       <c r="F32" s="7" t="s">
         <v>58</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="49" t="s">
+      <c r="H32" s="39"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="94" t="s">
         <v>64</v>
       </c>
-      <c r="K32" s="50"/>
-      <c r="L32" s="97" t="s">
+      <c r="K32" s="95"/>
+      <c r="L32" s="110" t="s">
         <v>23</v>
       </c>
-      <c r="M32" s="98"/>
-      <c r="N32" s="58" t="s">
+      <c r="M32" s="111"/>
+      <c r="N32" s="96" t="s">
         <v>102</v>
       </c>
-      <c r="O32" s="59"/>
-      <c r="P32" s="58" t="s">
+      <c r="O32" s="97"/>
+      <c r="P32" s="96" t="s">
         <v>102</v>
       </c>
-      <c r="Q32" s="59"/>
-      <c r="R32" s="33" t="s">
+      <c r="Q32" s="97"/>
+      <c r="R32" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="S32" s="34"/>
-      <c r="T32" s="64" t="s">
+      <c r="S32" s="55"/>
+      <c r="T32" s="70" t="s">
         <v>103</v>
       </c>
-      <c r="U32" s="65"/>
-      <c r="V32" s="33" t="s">
+      <c r="U32" s="71"/>
+      <c r="V32" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="W32" s="34"/>
+      <c r="W32" s="55"/>
     </row>
     <row r="33" spans="1:23" ht="6.75" customHeight="1">
-      <c r="A33" s="54"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="57"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
+      <c r="A33" s="31"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
       <c r="F33" s="7" t="s">
         <v>104</v>
       </c>
       <c r="G33" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="13" t="s">
+      <c r="H33" s="40"/>
+      <c r="I33" s="40"/>
+      <c r="J33" s="90" t="s">
         <v>106</v>
       </c>
-      <c r="K33" s="14"/>
-      <c r="L33" s="74" t="s">
+      <c r="K33" s="91"/>
+      <c r="L33" s="52" t="s">
         <v>107</v>
       </c>
-      <c r="M33" s="75"/>
-      <c r="N33" s="60"/>
-      <c r="O33" s="61"/>
-      <c r="P33" s="60"/>
-      <c r="Q33" s="61"/>
-      <c r="R33" s="13" t="s">
+      <c r="M33" s="53"/>
+      <c r="N33" s="98"/>
+      <c r="O33" s="99"/>
+      <c r="P33" s="98"/>
+      <c r="Q33" s="99"/>
+      <c r="R33" s="90" t="s">
         <v>71</v>
       </c>
-      <c r="S33" s="14"/>
-      <c r="T33" s="66"/>
-      <c r="U33" s="67"/>
-      <c r="V33" s="74" t="s">
+      <c r="S33" s="91"/>
+      <c r="T33" s="72"/>
+      <c r="U33" s="73"/>
+      <c r="V33" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="W33" s="75"/>
+      <c r="W33" s="53"/>
     </row>
     <row r="34" spans="1:23" ht="6.75" customHeight="1">
-      <c r="A34" s="54"/>
-      <c r="B34" s="23" t="s">
+      <c r="A34" s="31"/>
+      <c r="B34" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="C34" s="17" t="s">
+      <c r="C34" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="70" t="s">
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="120" t="s">
         <v>108</v>
       </c>
-      <c r="G34" s="71"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
+      <c r="G34" s="121"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="39"/>
       <c r="J34" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11"/>
+      <c r="K34" s="39"/>
+      <c r="L34" s="39"/>
       <c r="M34" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="N34" s="11"/>
-      <c r="O34" s="11"/>
-      <c r="P34" s="31" t="s">
+      <c r="N34" s="39"/>
+      <c r="O34" s="39"/>
+      <c r="P34" s="60" t="s">
         <v>99</v>
       </c>
-      <c r="Q34" s="32"/>
-      <c r="R34" s="11"/>
-      <c r="S34" s="11"/>
-      <c r="T34" s="11"/>
-      <c r="U34" s="11"/>
-      <c r="V34" s="76" t="s">
+      <c r="Q34" s="61"/>
+      <c r="R34" s="39"/>
+      <c r="S34" s="39"/>
+      <c r="T34" s="39"/>
+      <c r="U34" s="39"/>
+      <c r="V34" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="W34" s="77"/>
+      <c r="W34" s="103"/>
     </row>
     <row r="35" spans="1:23" ht="6.75" customHeight="1">
-      <c r="A35" s="54"/>
-      <c r="B35" s="24"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="76" t="s">
+      <c r="A35" s="31"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="102" t="s">
         <v>109</v>
       </c>
-      <c r="G35" s="77"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
+      <c r="G35" s="103"/>
+      <c r="H35" s="40"/>
+      <c r="I35" s="40"/>
       <c r="J35" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="K35" s="12"/>
-      <c r="L35" s="12"/>
+      <c r="K35" s="40"/>
+      <c r="L35" s="40"/>
       <c r="M35" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="N35" s="12"/>
-      <c r="O35" s="12"/>
-      <c r="P35" s="74" t="s">
+      <c r="N35" s="40"/>
+      <c r="O35" s="40"/>
+      <c r="P35" s="52" t="s">
         <v>100</v>
       </c>
-      <c r="Q35" s="75"/>
-      <c r="R35" s="12"/>
-      <c r="S35" s="12"/>
-      <c r="T35" s="12"/>
-      <c r="U35" s="12"/>
-      <c r="V35" s="72" t="s">
+      <c r="Q35" s="53"/>
+      <c r="R35" s="40"/>
+      <c r="S35" s="40"/>
+      <c r="T35" s="40"/>
+      <c r="U35" s="40"/>
+      <c r="V35" s="100" t="s">
         <v>110</v>
       </c>
-      <c r="W35" s="73"/>
+      <c r="W35" s="101"/>
     </row>
     <row r="36" spans="1:23" ht="6" customHeight="1">
-      <c r="A36" s="54"/>
-      <c r="B36" s="15" t="s">
+      <c r="A36" s="31"/>
+      <c r="B36" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="C36" s="17" t="s">
+      <c r="C36" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="19" t="s">
+      <c r="D36" s="39"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="92" t="s">
         <v>111</v>
       </c>
-      <c r="G36" s="20"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="11"/>
-      <c r="L36" s="11"/>
-      <c r="M36" s="11"/>
-      <c r="N36" s="11"/>
-      <c r="O36" s="11"/>
+      <c r="G36" s="93"/>
+      <c r="H36" s="39"/>
+      <c r="I36" s="39"/>
+      <c r="J36" s="39"/>
+      <c r="K36" s="39"/>
+      <c r="L36" s="39"/>
+      <c r="M36" s="39"/>
+      <c r="N36" s="39"/>
+      <c r="O36" s="39"/>
       <c r="P36" s="8" t="s">
         <v>38</v>
       </c>
       <c r="Q36" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="R36" s="11"/>
-      <c r="S36" s="11"/>
-      <c r="T36" s="11"/>
-      <c r="U36" s="11"/>
-      <c r="V36" s="11"/>
-      <c r="W36" s="11"/>
+      <c r="R36" s="39"/>
+      <c r="S36" s="39"/>
+      <c r="T36" s="39"/>
+      <c r="U36" s="39"/>
+      <c r="V36" s="39"/>
+      <c r="W36" s="39"/>
     </row>
     <row r="37" spans="1:23" ht="6.75" customHeight="1">
-      <c r="A37" s="54"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="13" t="s">
+      <c r="A37" s="31"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="44"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="40"/>
+      <c r="F37" s="90" t="s">
         <v>112</v>
       </c>
-      <c r="G37" s="14"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="12"/>
-      <c r="N37" s="12"/>
-      <c r="O37" s="12"/>
+      <c r="G37" s="91"/>
+      <c r="H37" s="40"/>
+      <c r="I37" s="40"/>
+      <c r="J37" s="40"/>
+      <c r="K37" s="40"/>
+      <c r="L37" s="40"/>
+      <c r="M37" s="40"/>
+      <c r="N37" s="40"/>
+      <c r="O37" s="40"/>
       <c r="P37" s="5" t="s">
         <v>113</v>
       </c>
       <c r="Q37" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="R37" s="12"/>
-      <c r="S37" s="12"/>
-      <c r="T37" s="12"/>
-      <c r="U37" s="12"/>
-      <c r="V37" s="12"/>
-      <c r="W37" s="12"/>
+      <c r="R37" s="40"/>
+      <c r="S37" s="40"/>
+      <c r="T37" s="40"/>
+      <c r="U37" s="40"/>
+      <c r="V37" s="40"/>
+      <c r="W37" s="40"/>
     </row>
     <row r="38" spans="1:23" ht="7.35" customHeight="1">
-      <c r="A38" s="55"/>
+      <c r="A38" s="32"/>
       <c r="B38" s="9" t="s">
         <v>54</v>
       </c>
@@ -10091,10 +10097,10 @@
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
-      <c r="F38" s="19" t="s">
+      <c r="F38" s="92" t="s">
         <v>114</v>
       </c>
-      <c r="G38" s="20"/>
+      <c r="G38" s="93"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
@@ -10113,87 +10119,87 @@
       <c r="W38" s="1"/>
     </row>
     <row r="39" spans="1:23" ht="6.75" customHeight="1">
-      <c r="A39" s="53" t="s">
+      <c r="A39" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="B39" s="23" t="s">
+      <c r="B39" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C39" s="56" t="s">
+      <c r="C39" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="62" t="s">
+      <c r="D39" s="39"/>
+      <c r="E39" s="39"/>
+      <c r="F39" s="39"/>
+      <c r="G39" s="39"/>
+      <c r="H39" s="88" t="s">
         <v>116</v>
       </c>
-      <c r="I39" s="63"/>
-      <c r="J39" s="29" t="s">
+      <c r="I39" s="89"/>
+      <c r="J39" s="124" t="s">
         <v>117</v>
       </c>
-      <c r="K39" s="30"/>
+      <c r="K39" s="125"/>
       <c r="L39" s="7" t="s">
         <v>58</v>
       </c>
       <c r="M39" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="N39" s="72" t="s">
+      <c r="N39" s="100" t="s">
         <v>77</v>
       </c>
-      <c r="O39" s="73"/>
-      <c r="P39" s="11"/>
-      <c r="Q39" s="11"/>
-      <c r="R39" s="11"/>
-      <c r="S39" s="11"/>
-      <c r="T39" s="11"/>
-      <c r="U39" s="11"/>
-      <c r="V39" s="11"/>
-      <c r="W39" s="11"/>
+      <c r="O39" s="101"/>
+      <c r="P39" s="39"/>
+      <c r="Q39" s="39"/>
+      <c r="R39" s="39"/>
+      <c r="S39" s="39"/>
+      <c r="T39" s="39"/>
+      <c r="U39" s="39"/>
+      <c r="V39" s="39"/>
+      <c r="W39" s="39"/>
     </row>
     <row r="40" spans="1:23" ht="6.75" customHeight="1">
-      <c r="A40" s="54"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="57"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="13" t="s">
+      <c r="A40" s="31"/>
+      <c r="B40" s="34"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="40"/>
+      <c r="F40" s="40"/>
+      <c r="G40" s="40"/>
+      <c r="H40" s="90" t="s">
         <v>118</v>
       </c>
-      <c r="I40" s="14"/>
-      <c r="J40" s="68" t="s">
+      <c r="I40" s="91"/>
+      <c r="J40" s="104" t="s">
         <v>109</v>
       </c>
-      <c r="K40" s="69"/>
+      <c r="K40" s="105"/>
       <c r="L40" s="7" t="s">
         <v>119</v>
       </c>
       <c r="M40" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="N40" s="33" t="s">
+      <c r="N40" s="54" t="s">
         <v>121</v>
       </c>
-      <c r="O40" s="34"/>
-      <c r="P40" s="12"/>
-      <c r="Q40" s="12"/>
-      <c r="R40" s="12"/>
-      <c r="S40" s="12"/>
-      <c r="T40" s="12"/>
-      <c r="U40" s="12"/>
-      <c r="V40" s="12"/>
-      <c r="W40" s="12"/>
+      <c r="O40" s="55"/>
+      <c r="P40" s="40"/>
+      <c r="Q40" s="40"/>
+      <c r="R40" s="40"/>
+      <c r="S40" s="40"/>
+      <c r="T40" s="40"/>
+      <c r="U40" s="40"/>
+      <c r="V40" s="40"/>
+      <c r="W40" s="40"/>
     </row>
     <row r="41" spans="1:23" ht="6.75" customHeight="1">
-      <c r="A41" s="54"/>
-      <c r="B41" s="15" t="s">
+      <c r="A41" s="31"/>
+      <c r="B41" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="C41" s="35" t="s">
+      <c r="C41" s="56" t="s">
         <v>22</v>
       </c>
       <c r="D41" s="7" t="s">
@@ -10202,32 +10208,32 @@
       <c r="E41" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="19" t="s">
+      <c r="F41" s="39"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="92" t="s">
         <v>73</v>
       </c>
-      <c r="I41" s="20"/>
-      <c r="J41" s="49" t="s">
+      <c r="I41" s="93"/>
+      <c r="J41" s="94" t="s">
         <v>111</v>
       </c>
-      <c r="K41" s="50"/>
-      <c r="L41" s="51" t="s">
+      <c r="K41" s="95"/>
+      <c r="L41" s="122" t="s">
         <v>116</v>
       </c>
-      <c r="M41" s="52"/>
-      <c r="N41" s="31" t="s">
+      <c r="M41" s="123"/>
+      <c r="N41" s="60" t="s">
         <v>122</v>
       </c>
-      <c r="O41" s="32"/>
-      <c r="P41" s="11"/>
-      <c r="Q41" s="11"/>
-      <c r="R41" s="11"/>
-      <c r="S41" s="11"/>
-      <c r="T41" s="72" t="s">
+      <c r="O41" s="61"/>
+      <c r="P41" s="39"/>
+      <c r="Q41" s="39"/>
+      <c r="R41" s="39"/>
+      <c r="S41" s="39"/>
+      <c r="T41" s="100" t="s">
         <v>123</v>
       </c>
-      <c r="U41" s="73"/>
+      <c r="U41" s="101"/>
       <c r="V41" s="5" t="s">
         <v>124</v>
       </c>
@@ -10236,41 +10242,41 @@
       </c>
     </row>
     <row r="42" spans="1:23" ht="6.75" customHeight="1">
-      <c r="A42" s="54"/>
-      <c r="B42" s="16"/>
-      <c r="C42" s="36"/>
+      <c r="A42" s="31"/>
+      <c r="B42" s="42"/>
+      <c r="C42" s="57"/>
       <c r="D42" s="7" t="s">
         <v>60</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="74" t="s">
+      <c r="F42" s="40"/>
+      <c r="G42" s="40"/>
+      <c r="H42" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="I42" s="75"/>
-      <c r="J42" s="13" t="s">
+      <c r="I42" s="53"/>
+      <c r="J42" s="90" t="s">
         <v>126</v>
       </c>
-      <c r="K42" s="14"/>
-      <c r="L42" s="13" t="s">
+      <c r="K42" s="91"/>
+      <c r="L42" s="90" t="s">
         <v>118</v>
       </c>
-      <c r="M42" s="14"/>
-      <c r="N42" s="13" t="s">
+      <c r="M42" s="91"/>
+      <c r="N42" s="90" t="s">
         <v>127</v>
       </c>
-      <c r="O42" s="14"/>
-      <c r="P42" s="12"/>
-      <c r="Q42" s="12"/>
-      <c r="R42" s="12"/>
-      <c r="S42" s="12"/>
-      <c r="T42" s="13" t="s">
+      <c r="O42" s="91"/>
+      <c r="P42" s="40"/>
+      <c r="Q42" s="40"/>
+      <c r="R42" s="40"/>
+      <c r="S42" s="40"/>
+      <c r="T42" s="90" t="s">
         <v>69</v>
       </c>
-      <c r="U42" s="14"/>
+      <c r="U42" s="91"/>
       <c r="V42" s="5" t="s">
         <v>128</v>
       </c>
@@ -10279,45 +10285,45 @@
       </c>
     </row>
     <row r="43" spans="1:23" ht="6.75" customHeight="1">
-      <c r="A43" s="54"/>
-      <c r="B43" s="15" t="s">
+      <c r="A43" s="31"/>
+      <c r="B43" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="C43" s="56" t="s">
+      <c r="C43" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="D43" s="70" t="s">
-        <v>129</v>
-      </c>
-      <c r="E43" s="71"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="76" t="s">
+      <c r="D43" s="147" t="s">
+        <v>173</v>
+      </c>
+      <c r="E43" s="121"/>
+      <c r="F43" s="39"/>
+      <c r="G43" s="39"/>
+      <c r="H43" s="102" t="s">
         <v>130</v>
       </c>
-      <c r="I43" s="77"/>
-      <c r="J43" s="89" t="s">
+      <c r="I43" s="103"/>
+      <c r="J43" s="126" t="s">
         <v>131</v>
       </c>
-      <c r="K43" s="90"/>
-      <c r="L43" s="31" t="s">
+      <c r="K43" s="127"/>
+      <c r="L43" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="M43" s="32"/>
-      <c r="N43" s="89" t="s">
+      <c r="M43" s="61"/>
+      <c r="N43" s="126" t="s">
         <v>132</v>
       </c>
-      <c r="O43" s="90"/>
-      <c r="P43" s="11"/>
-      <c r="Q43" s="11"/>
-      <c r="R43" s="93" t="s">
+      <c r="O43" s="127"/>
+      <c r="P43" s="39"/>
+      <c r="Q43" s="39"/>
+      <c r="R43" s="130" t="s">
         <v>133</v>
       </c>
-      <c r="S43" s="94"/>
-      <c r="T43" s="41" t="s">
+      <c r="S43" s="131"/>
+      <c r="T43" s="134" t="s">
         <v>133</v>
       </c>
-      <c r="U43" s="42"/>
+      <c r="U43" s="135"/>
       <c r="V43" s="5" t="s">
         <v>47</v>
       </c>
@@ -10326,33 +10332,33 @@
       </c>
     </row>
     <row r="44" spans="1:23" ht="6.75" customHeight="1">
-      <c r="A44" s="54"/>
-      <c r="B44" s="16"/>
-      <c r="C44" s="57"/>
-      <c r="D44" s="76" t="s">
+      <c r="A44" s="31"/>
+      <c r="B44" s="42"/>
+      <c r="C44" s="36"/>
+      <c r="D44" s="102" t="s">
         <v>134</v>
       </c>
-      <c r="E44" s="77"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="68" t="s">
+      <c r="E44" s="103"/>
+      <c r="F44" s="40"/>
+      <c r="G44" s="40"/>
+      <c r="H44" s="104" t="s">
         <v>36</v>
       </c>
-      <c r="I44" s="69"/>
-      <c r="J44" s="91"/>
-      <c r="K44" s="92"/>
-      <c r="L44" s="74" t="s">
+      <c r="I44" s="105"/>
+      <c r="J44" s="128"/>
+      <c r="K44" s="129"/>
+      <c r="L44" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="M44" s="75"/>
-      <c r="N44" s="91"/>
-      <c r="O44" s="92"/>
-      <c r="P44" s="12"/>
-      <c r="Q44" s="12"/>
-      <c r="R44" s="95"/>
-      <c r="S44" s="96"/>
-      <c r="T44" s="43"/>
-      <c r="U44" s="44"/>
+      <c r="M44" s="53"/>
+      <c r="N44" s="128"/>
+      <c r="O44" s="129"/>
+      <c r="P44" s="40"/>
+      <c r="Q44" s="40"/>
+      <c r="R44" s="132"/>
+      <c r="S44" s="133"/>
+      <c r="T44" s="136"/>
+      <c r="U44" s="137"/>
       <c r="V44" s="5" t="s">
         <v>42</v>
       </c>
@@ -10361,159 +10367,159 @@
       </c>
     </row>
     <row r="45" spans="1:23" ht="6.75" customHeight="1">
-      <c r="A45" s="54"/>
-      <c r="B45" s="23" t="s">
+      <c r="A45" s="31"/>
+      <c r="B45" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="C45" s="17" t="s">
+      <c r="C45" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="D45" s="33" t="s">
+      <c r="D45" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="E45" s="34"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
+      <c r="E45" s="55"/>
+      <c r="F45" s="39"/>
+      <c r="G45" s="39"/>
       <c r="H45" s="7" t="s">
         <v>57</v>
       </c>
       <c r="I45" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="J45" s="51" t="s">
+      <c r="J45" s="122" t="s">
         <v>116</v>
       </c>
-      <c r="K45" s="52"/>
-      <c r="L45" s="68" t="s">
+      <c r="K45" s="123"/>
+      <c r="L45" s="104" t="s">
         <v>136</v>
       </c>
-      <c r="M45" s="69"/>
+      <c r="M45" s="105"/>
       <c r="N45" s="10" t="s">
         <v>137</v>
       </c>
       <c r="O45" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="P45" s="11"/>
-      <c r="Q45" s="11"/>
-      <c r="R45" s="31" t="s">
+      <c r="P45" s="39"/>
+      <c r="Q45" s="39"/>
+      <c r="R45" s="60" t="s">
         <v>123</v>
       </c>
-      <c r="S45" s="32"/>
-      <c r="T45" s="33" t="s">
+      <c r="S45" s="61"/>
+      <c r="T45" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="U45" s="34"/>
-      <c r="V45" s="11"/>
-      <c r="W45" s="11"/>
+      <c r="U45" s="55"/>
+      <c r="V45" s="39"/>
+      <c r="W45" s="39"/>
     </row>
     <row r="46" spans="1:23" ht="6.75" customHeight="1">
-      <c r="A46" s="54"/>
-      <c r="B46" s="24"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="13" t="s">
+      <c r="A46" s="31"/>
+      <c r="B46" s="34"/>
+      <c r="C46" s="44"/>
+      <c r="D46" s="90" t="s">
         <v>85</v>
       </c>
-      <c r="E46" s="14"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
+      <c r="E46" s="91"/>
+      <c r="F46" s="40"/>
+      <c r="G46" s="40"/>
       <c r="H46" s="7" t="s">
         <v>138</v>
       </c>
       <c r="I46" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="J46" s="13" t="s">
+      <c r="J46" s="90" t="s">
         <v>139</v>
       </c>
-      <c r="K46" s="14"/>
-      <c r="L46" s="74" t="s">
+      <c r="K46" s="91"/>
+      <c r="L46" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="M46" s="75"/>
+      <c r="M46" s="53"/>
       <c r="N46" s="5" t="s">
         <v>113</v>
       </c>
       <c r="O46" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="P46" s="12"/>
-      <c r="Q46" s="12"/>
-      <c r="R46" s="13" t="s">
+      <c r="P46" s="40"/>
+      <c r="Q46" s="40"/>
+      <c r="R46" s="90" t="s">
         <v>69</v>
       </c>
-      <c r="S46" s="14"/>
-      <c r="T46" s="74" t="s">
+      <c r="S46" s="91"/>
+      <c r="T46" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="U46" s="75"/>
-      <c r="V46" s="12"/>
-      <c r="W46" s="12"/>
+      <c r="U46" s="53"/>
+      <c r="V46" s="40"/>
+      <c r="W46" s="40"/>
     </row>
     <row r="47" spans="1:23" ht="6.75" customHeight="1">
-      <c r="A47" s="54"/>
-      <c r="B47" s="15" t="s">
+      <c r="A47" s="31"/>
+      <c r="B47" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="C47" s="17" t="s">
+      <c r="C47" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="D47" s="58" t="s">
+      <c r="D47" s="96" t="s">
         <v>90</v>
       </c>
-      <c r="E47" s="59"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="11"/>
-      <c r="I47" s="11"/>
-      <c r="J47" s="11"/>
-      <c r="K47" s="11"/>
-      <c r="L47" s="11"/>
-      <c r="M47" s="11"/>
-      <c r="N47" s="11"/>
-      <c r="O47" s="11"/>
-      <c r="P47" s="11"/>
-      <c r="Q47" s="11"/>
-      <c r="R47" s="84" t="s">
+      <c r="E47" s="97"/>
+      <c r="F47" s="39"/>
+      <c r="G47" s="39"/>
+      <c r="H47" s="39"/>
+      <c r="I47" s="39"/>
+      <c r="J47" s="39"/>
+      <c r="K47" s="39"/>
+      <c r="L47" s="39"/>
+      <c r="M47" s="39"/>
+      <c r="N47" s="39"/>
+      <c r="O47" s="39"/>
+      <c r="P47" s="39"/>
+      <c r="Q47" s="39"/>
+      <c r="R47" s="116" t="s">
         <v>140</v>
       </c>
-      <c r="S47" s="85"/>
-      <c r="T47" s="11"/>
-      <c r="U47" s="11"/>
-      <c r="V47" s="33" t="s">
+      <c r="S47" s="117"/>
+      <c r="T47" s="39"/>
+      <c r="U47" s="39"/>
+      <c r="V47" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="W47" s="34"/>
+      <c r="W47" s="55"/>
     </row>
     <row r="48" spans="1:23" ht="6.75" customHeight="1">
-      <c r="A48" s="54"/>
-      <c r="B48" s="16"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="60"/>
-      <c r="E48" s="61"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="12"/>
-      <c r="I48" s="12"/>
-      <c r="J48" s="12"/>
-      <c r="K48" s="12"/>
-      <c r="L48" s="12"/>
-      <c r="M48" s="12"/>
-      <c r="N48" s="12"/>
-      <c r="O48" s="12"/>
-      <c r="P48" s="12"/>
-      <c r="Q48" s="12"/>
-      <c r="R48" s="86"/>
-      <c r="S48" s="87"/>
-      <c r="T48" s="12"/>
-      <c r="U48" s="12"/>
-      <c r="V48" s="74" t="s">
+      <c r="A48" s="31"/>
+      <c r="B48" s="42"/>
+      <c r="C48" s="44"/>
+      <c r="D48" s="98"/>
+      <c r="E48" s="99"/>
+      <c r="F48" s="40"/>
+      <c r="G48" s="40"/>
+      <c r="H48" s="40"/>
+      <c r="I48" s="40"/>
+      <c r="J48" s="40"/>
+      <c r="K48" s="40"/>
+      <c r="L48" s="40"/>
+      <c r="M48" s="40"/>
+      <c r="N48" s="40"/>
+      <c r="O48" s="40"/>
+      <c r="P48" s="40"/>
+      <c r="Q48" s="40"/>
+      <c r="R48" s="118"/>
+      <c r="S48" s="119"/>
+      <c r="T48" s="40"/>
+      <c r="U48" s="40"/>
+      <c r="V48" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="W48" s="75"/>
+      <c r="W48" s="53"/>
     </row>
     <row r="49" spans="1:23" ht="7.5" customHeight="1">
-      <c r="A49" s="55"/>
+      <c r="A49" s="32"/>
       <c r="B49" s="9" t="s">
         <v>54</v>
       </c>
@@ -10542,369 +10548,369 @@
       <c r="W49" s="1"/>
     </row>
     <row r="50" spans="1:23" ht="6.75" customHeight="1">
-      <c r="A50" s="23" t="s">
+      <c r="A50" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="B50" s="23" t="s">
+      <c r="B50" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C50" s="56" t="s">
+      <c r="C50" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="D50" s="76" t="s">
+      <c r="D50" s="102" t="s">
         <v>142</v>
       </c>
-      <c r="E50" s="77"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="11"/>
-      <c r="H50" s="11"/>
-      <c r="I50" s="11"/>
-      <c r="J50" s="11"/>
-      <c r="K50" s="11"/>
-      <c r="L50" s="11"/>
-      <c r="M50" s="11"/>
-      <c r="N50" s="11"/>
-      <c r="O50" s="11"/>
-      <c r="P50" s="11"/>
-      <c r="Q50" s="11"/>
-      <c r="R50" s="72" t="s">
+      <c r="E50" s="103"/>
+      <c r="F50" s="39"/>
+      <c r="G50" s="39"/>
+      <c r="H50" s="39"/>
+      <c r="I50" s="39"/>
+      <c r="J50" s="39"/>
+      <c r="K50" s="39"/>
+      <c r="L50" s="39"/>
+      <c r="M50" s="39"/>
+      <c r="N50" s="39"/>
+      <c r="O50" s="39"/>
+      <c r="P50" s="39"/>
+      <c r="Q50" s="39"/>
+      <c r="R50" s="100" t="s">
         <v>77</v>
       </c>
-      <c r="S50" s="73"/>
-      <c r="T50" s="11"/>
-      <c r="U50" s="11"/>
-      <c r="V50" s="72" t="s">
+      <c r="S50" s="101"/>
+      <c r="T50" s="39"/>
+      <c r="U50" s="39"/>
+      <c r="V50" s="100" t="s">
         <v>122</v>
       </c>
-      <c r="W50" s="73"/>
+      <c r="W50" s="101"/>
     </row>
     <row r="51" spans="1:23" ht="6.75" customHeight="1">
-      <c r="A51" s="88"/>
-      <c r="B51" s="24"/>
-      <c r="C51" s="57"/>
-      <c r="D51" s="68" t="s">
+      <c r="A51" s="138"/>
+      <c r="B51" s="34"/>
+      <c r="C51" s="36"/>
+      <c r="D51" s="104" t="s">
         <v>36</v>
       </c>
-      <c r="E51" s="69"/>
-      <c r="F51" s="12"/>
-      <c r="G51" s="12"/>
-      <c r="H51" s="12"/>
-      <c r="I51" s="12"/>
-      <c r="J51" s="12"/>
-      <c r="K51" s="12"/>
-      <c r="L51" s="12"/>
-      <c r="M51" s="12"/>
-      <c r="N51" s="12"/>
-      <c r="O51" s="12"/>
-      <c r="P51" s="12"/>
-      <c r="Q51" s="12"/>
-      <c r="R51" s="33" t="s">
+      <c r="E51" s="105"/>
+      <c r="F51" s="40"/>
+      <c r="G51" s="40"/>
+      <c r="H51" s="40"/>
+      <c r="I51" s="40"/>
+      <c r="J51" s="40"/>
+      <c r="K51" s="40"/>
+      <c r="L51" s="40"/>
+      <c r="M51" s="40"/>
+      <c r="N51" s="40"/>
+      <c r="O51" s="40"/>
+      <c r="P51" s="40"/>
+      <c r="Q51" s="40"/>
+      <c r="R51" s="54" t="s">
         <v>143</v>
       </c>
-      <c r="S51" s="34"/>
-      <c r="T51" s="12"/>
-      <c r="U51" s="12"/>
-      <c r="V51" s="13" t="s">
+      <c r="S51" s="55"/>
+      <c r="T51" s="40"/>
+      <c r="U51" s="40"/>
+      <c r="V51" s="90" t="s">
         <v>144</v>
       </c>
-      <c r="W51" s="14"/>
+      <c r="W51" s="91"/>
     </row>
     <row r="52" spans="1:23" ht="6.75" customHeight="1">
-      <c r="A52" s="88"/>
-      <c r="B52" s="15" t="s">
+      <c r="A52" s="138"/>
+      <c r="B52" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="C52" s="35" t="s">
+      <c r="C52" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="D52" s="19" t="s">
+      <c r="D52" s="92" t="s">
         <v>64</v>
       </c>
-      <c r="E52" s="20"/>
+      <c r="E52" s="93"/>
       <c r="F52" s="7" t="s">
         <v>57</v>
       </c>
       <c r="G52" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="H52" s="11"/>
-      <c r="I52" s="11"/>
-      <c r="J52" s="11"/>
-      <c r="K52" s="11"/>
-      <c r="L52" s="11"/>
-      <c r="M52" s="11"/>
-      <c r="N52" s="11"/>
-      <c r="O52" s="11"/>
-      <c r="P52" s="11"/>
-      <c r="Q52" s="11"/>
-      <c r="R52" s="45" t="s">
+      <c r="H52" s="39"/>
+      <c r="I52" s="39"/>
+      <c r="J52" s="39"/>
+      <c r="K52" s="39"/>
+      <c r="L52" s="39"/>
+      <c r="M52" s="39"/>
+      <c r="N52" s="39"/>
+      <c r="O52" s="39"/>
+      <c r="P52" s="39"/>
+      <c r="Q52" s="39"/>
+      <c r="R52" s="139" t="s">
         <v>145</v>
       </c>
-      <c r="S52" s="46"/>
-      <c r="T52" s="33" t="s">
+      <c r="S52" s="140"/>
+      <c r="T52" s="54" t="s">
         <v>146</v>
       </c>
-      <c r="U52" s="34"/>
-      <c r="V52" s="80" t="s">
+      <c r="U52" s="55"/>
+      <c r="V52" s="84" t="s">
         <v>147</v>
       </c>
-      <c r="W52" s="81"/>
+      <c r="W52" s="85"/>
     </row>
     <row r="53" spans="1:23" ht="6.75" customHeight="1">
-      <c r="A53" s="88"/>
-      <c r="B53" s="16"/>
-      <c r="C53" s="36"/>
-      <c r="D53" s="13" t="s">
+      <c r="A53" s="138"/>
+      <c r="B53" s="42"/>
+      <c r="C53" s="57"/>
+      <c r="D53" s="90" t="s">
         <v>148</v>
       </c>
-      <c r="E53" s="14"/>
+      <c r="E53" s="91"/>
       <c r="F53" s="7" t="s">
         <v>125</v>
       </c>
       <c r="G53" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="H53" s="12"/>
-      <c r="I53" s="12"/>
-      <c r="J53" s="12"/>
-      <c r="K53" s="12"/>
-      <c r="L53" s="12"/>
-      <c r="M53" s="12"/>
-      <c r="N53" s="12"/>
-      <c r="O53" s="12"/>
-      <c r="P53" s="12"/>
-      <c r="Q53" s="12"/>
-      <c r="R53" s="47"/>
-      <c r="S53" s="48"/>
-      <c r="T53" s="13" t="s">
+      <c r="H53" s="40"/>
+      <c r="I53" s="40"/>
+      <c r="J53" s="40"/>
+      <c r="K53" s="40"/>
+      <c r="L53" s="40"/>
+      <c r="M53" s="40"/>
+      <c r="N53" s="40"/>
+      <c r="O53" s="40"/>
+      <c r="P53" s="40"/>
+      <c r="Q53" s="40"/>
+      <c r="R53" s="141"/>
+      <c r="S53" s="142"/>
+      <c r="T53" s="90" t="s">
         <v>69</v>
       </c>
-      <c r="U53" s="14"/>
-      <c r="V53" s="82"/>
-      <c r="W53" s="83"/>
+      <c r="U53" s="91"/>
+      <c r="V53" s="86"/>
+      <c r="W53" s="87"/>
     </row>
     <row r="54" spans="1:23" ht="6.75" customHeight="1">
-      <c r="A54" s="88"/>
-      <c r="B54" s="15" t="s">
+      <c r="A54" s="138"/>
+      <c r="B54" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="C54" s="56" t="s">
+      <c r="C54" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="D54" s="78" t="s">
+      <c r="D54" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="E54" s="79"/>
-      <c r="F54" s="19" t="s">
+      <c r="E54" s="46"/>
+      <c r="F54" s="92" t="s">
         <v>64</v>
       </c>
-      <c r="G54" s="20"/>
-      <c r="H54" s="11"/>
+      <c r="G54" s="93"/>
+      <c r="H54" s="39"/>
       <c r="I54" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J54" s="11"/>
-      <c r="K54" s="11"/>
-      <c r="L54" s="11"/>
-      <c r="M54" s="11"/>
-      <c r="N54" s="11"/>
-      <c r="O54" s="11"/>
-      <c r="P54" s="11"/>
-      <c r="Q54" s="11"/>
-      <c r="R54" s="31" t="s">
+      <c r="J54" s="39"/>
+      <c r="K54" s="39"/>
+      <c r="L54" s="39"/>
+      <c r="M54" s="39"/>
+      <c r="N54" s="39"/>
+      <c r="O54" s="39"/>
+      <c r="P54" s="39"/>
+      <c r="Q54" s="39"/>
+      <c r="R54" s="60" t="s">
         <v>99</v>
       </c>
-      <c r="S54" s="32"/>
-      <c r="T54" s="72" t="s">
+      <c r="S54" s="61"/>
+      <c r="T54" s="100" t="s">
         <v>149</v>
       </c>
-      <c r="U54" s="73"/>
-      <c r="V54" s="33" t="s">
+      <c r="U54" s="101"/>
+      <c r="V54" s="54" t="s">
         <v>146</v>
       </c>
-      <c r="W54" s="34"/>
+      <c r="W54" s="55"/>
     </row>
     <row r="55" spans="1:23" ht="6.75" customHeight="1">
-      <c r="A55" s="88"/>
-      <c r="B55" s="16"/>
-      <c r="C55" s="57"/>
-      <c r="D55" s="13" t="s">
+      <c r="A55" s="138"/>
+      <c r="B55" s="42"/>
+      <c r="C55" s="36"/>
+      <c r="D55" s="90" t="s">
         <v>150</v>
       </c>
-      <c r="E55" s="14"/>
-      <c r="F55" s="13" t="s">
+      <c r="E55" s="91"/>
+      <c r="F55" s="90" t="s">
         <v>148</v>
       </c>
-      <c r="G55" s="14"/>
-      <c r="H55" s="12"/>
+      <c r="G55" s="91"/>
+      <c r="H55" s="40"/>
       <c r="I55" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="J55" s="12"/>
-      <c r="K55" s="12"/>
-      <c r="L55" s="12"/>
-      <c r="M55" s="12"/>
-      <c r="N55" s="12"/>
-      <c r="O55" s="12"/>
-      <c r="P55" s="12"/>
-      <c r="Q55" s="12"/>
-      <c r="R55" s="74" t="s">
+      <c r="J55" s="40"/>
+      <c r="K55" s="40"/>
+      <c r="L55" s="40"/>
+      <c r="M55" s="40"/>
+      <c r="N55" s="40"/>
+      <c r="O55" s="40"/>
+      <c r="P55" s="40"/>
+      <c r="Q55" s="40"/>
+      <c r="R55" s="52" t="s">
         <v>100</v>
       </c>
-      <c r="S55" s="75"/>
-      <c r="T55" s="76" t="s">
+      <c r="S55" s="53"/>
+      <c r="T55" s="102" t="s">
         <v>151</v>
       </c>
-      <c r="U55" s="77"/>
-      <c r="V55" s="13" t="s">
+      <c r="U55" s="103"/>
+      <c r="V55" s="90" t="s">
         <v>69</v>
       </c>
-      <c r="W55" s="14"/>
+      <c r="W55" s="91"/>
     </row>
     <row r="56" spans="1:23" ht="6.75" customHeight="1">
-      <c r="A56" s="88"/>
-      <c r="B56" s="23" t="s">
+      <c r="A56" s="138"/>
+      <c r="B56" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="C56" s="17" t="s">
+      <c r="C56" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="D56" s="64" t="s">
+      <c r="D56" s="70" t="s">
         <v>62</v>
       </c>
-      <c r="E56" s="65"/>
-      <c r="F56" s="33" t="s">
+      <c r="E56" s="71"/>
+      <c r="F56" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="G56" s="34"/>
-      <c r="H56" s="70" t="s">
+      <c r="G56" s="55"/>
+      <c r="H56" s="120" t="s">
         <v>152</v>
       </c>
-      <c r="I56" s="71"/>
-      <c r="J56" s="11"/>
-      <c r="K56" s="11"/>
-      <c r="L56" s="11"/>
-      <c r="M56" s="11"/>
-      <c r="N56" s="11"/>
-      <c r="O56" s="11"/>
-      <c r="P56" s="11"/>
-      <c r="Q56" s="11"/>
-      <c r="R56" s="11"/>
-      <c r="S56" s="11"/>
+      <c r="I56" s="121"/>
+      <c r="J56" s="39"/>
+      <c r="K56" s="39"/>
+      <c r="L56" s="39"/>
+      <c r="M56" s="39"/>
+      <c r="N56" s="39"/>
+      <c r="O56" s="39"/>
+      <c r="P56" s="39"/>
+      <c r="Q56" s="39"/>
+      <c r="R56" s="39"/>
+      <c r="S56" s="39"/>
       <c r="T56" s="5" t="s">
         <v>47</v>
       </c>
       <c r="U56" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="V56" s="64" t="s">
+      <c r="V56" s="70" t="s">
         <v>153</v>
       </c>
-      <c r="W56" s="65"/>
+      <c r="W56" s="71"/>
     </row>
     <row r="57" spans="1:23" ht="6.75" customHeight="1">
-      <c r="A57" s="88"/>
-      <c r="B57" s="24"/>
-      <c r="C57" s="18"/>
-      <c r="D57" s="66"/>
-      <c r="E57" s="67"/>
-      <c r="F57" s="13" t="s">
+      <c r="A57" s="138"/>
+      <c r="B57" s="34"/>
+      <c r="C57" s="44"/>
+      <c r="D57" s="72"/>
+      <c r="E57" s="73"/>
+      <c r="F57" s="90" t="s">
         <v>154</v>
       </c>
-      <c r="G57" s="14"/>
-      <c r="H57" s="68" t="s">
+      <c r="G57" s="91"/>
+      <c r="H57" s="104" t="s">
         <v>155</v>
       </c>
-      <c r="I57" s="69"/>
-      <c r="J57" s="12"/>
-      <c r="K57" s="12"/>
-      <c r="L57" s="12"/>
-      <c r="M57" s="12"/>
-      <c r="N57" s="12"/>
-      <c r="O57" s="12"/>
-      <c r="P57" s="12"/>
-      <c r="Q57" s="12"/>
-      <c r="R57" s="12"/>
-      <c r="S57" s="12"/>
+      <c r="I57" s="105"/>
+      <c r="J57" s="40"/>
+      <c r="K57" s="40"/>
+      <c r="L57" s="40"/>
+      <c r="M57" s="40"/>
+      <c r="N57" s="40"/>
+      <c r="O57" s="40"/>
+      <c r="P57" s="40"/>
+      <c r="Q57" s="40"/>
+      <c r="R57" s="40"/>
+      <c r="S57" s="40"/>
       <c r="T57" s="5" t="s">
         <v>42</v>
       </c>
       <c r="U57" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="V57" s="66"/>
-      <c r="W57" s="67"/>
+      <c r="V57" s="72"/>
+      <c r="W57" s="73"/>
     </row>
     <row r="58" spans="1:23" ht="6.75" customHeight="1">
-      <c r="A58" s="88"/>
-      <c r="B58" s="15" t="s">
+      <c r="A58" s="138"/>
+      <c r="B58" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="C58" s="17" t="s">
+      <c r="C58" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="11"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="58" t="s">
+      <c r="D58" s="39"/>
+      <c r="E58" s="39"/>
+      <c r="F58" s="96" t="s">
         <v>157</v>
       </c>
-      <c r="G58" s="59"/>
-      <c r="H58" s="62" t="s">
+      <c r="G58" s="97"/>
+      <c r="H58" s="88" t="s">
         <v>158</v>
       </c>
-      <c r="I58" s="63"/>
-      <c r="J58" s="11"/>
-      <c r="K58" s="11"/>
-      <c r="L58" s="11"/>
-      <c r="M58" s="11"/>
-      <c r="N58" s="11"/>
-      <c r="O58" s="11"/>
-      <c r="P58" s="11"/>
-      <c r="Q58" s="11"/>
-      <c r="R58" s="11"/>
-      <c r="S58" s="11"/>
+      <c r="I58" s="89"/>
+      <c r="J58" s="39"/>
+      <c r="K58" s="39"/>
+      <c r="L58" s="39"/>
+      <c r="M58" s="39"/>
+      <c r="N58" s="39"/>
+      <c r="O58" s="39"/>
+      <c r="P58" s="39"/>
+      <c r="Q58" s="39"/>
+      <c r="R58" s="39"/>
+      <c r="S58" s="39"/>
       <c r="T58" s="5" t="s">
         <v>124</v>
       </c>
       <c r="U58" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="V58" s="11"/>
-      <c r="W58" s="11"/>
+      <c r="V58" s="39"/>
+      <c r="W58" s="39"/>
     </row>
     <row r="59" spans="1:23" ht="6.75" customHeight="1">
-      <c r="A59" s="88"/>
-      <c r="B59" s="16"/>
-      <c r="C59" s="18"/>
-      <c r="D59" s="12"/>
-      <c r="E59" s="12"/>
-      <c r="F59" s="60"/>
-      <c r="G59" s="61"/>
-      <c r="H59" s="13" t="s">
+      <c r="A59" s="138"/>
+      <c r="B59" s="42"/>
+      <c r="C59" s="44"/>
+      <c r="D59" s="40"/>
+      <c r="E59" s="40"/>
+      <c r="F59" s="98"/>
+      <c r="G59" s="99"/>
+      <c r="H59" s="90" t="s">
         <v>159</v>
       </c>
-      <c r="I59" s="14"/>
-      <c r="J59" s="12"/>
-      <c r="K59" s="12"/>
-      <c r="L59" s="12"/>
-      <c r="M59" s="12"/>
-      <c r="N59" s="12"/>
-      <c r="O59" s="12"/>
-      <c r="P59" s="12"/>
-      <c r="Q59" s="12"/>
-      <c r="R59" s="12"/>
-      <c r="S59" s="12"/>
+      <c r="I59" s="91"/>
+      <c r="J59" s="40"/>
+      <c r="K59" s="40"/>
+      <c r="L59" s="40"/>
+      <c r="M59" s="40"/>
+      <c r="N59" s="40"/>
+      <c r="O59" s="40"/>
+      <c r="P59" s="40"/>
+      <c r="Q59" s="40"/>
+      <c r="R59" s="40"/>
+      <c r="S59" s="40"/>
       <c r="T59" s="5" t="s">
         <v>156</v>
       </c>
       <c r="U59" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="V59" s="12"/>
-      <c r="W59" s="12"/>
+      <c r="V59" s="40"/>
+      <c r="W59" s="40"/>
     </row>
     <row r="60" spans="1:23" ht="7.5" customHeight="1">
-      <c r="A60" s="24"/>
+      <c r="A60" s="34"/>
       <c r="B60" s="9" t="s">
         <v>54</v>
       </c>
@@ -10915,10 +10921,10 @@
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
-      <c r="H60" s="51" t="s">
+      <c r="H60" s="122" t="s">
         <v>160</v>
       </c>
-      <c r="I60" s="52"/>
+      <c r="I60" s="123"/>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
@@ -10935,75 +10941,75 @@
       <c r="W60" s="1"/>
     </row>
     <row r="61" spans="1:23" ht="6.75" customHeight="1">
-      <c r="A61" s="53" t="s">
+      <c r="A61" s="30" t="s">
         <v>161</v>
       </c>
-      <c r="B61" s="23" t="s">
+      <c r="B61" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C61" s="56" t="s">
+      <c r="C61" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="D61" s="11"/>
-      <c r="E61" s="11"/>
-      <c r="F61" s="11"/>
-      <c r="G61" s="11"/>
-      <c r="H61" s="11"/>
-      <c r="I61" s="11"/>
-      <c r="J61" s="11"/>
-      <c r="K61" s="11"/>
-      <c r="L61" s="49" t="s">
+      <c r="D61" s="39"/>
+      <c r="E61" s="39"/>
+      <c r="F61" s="39"/>
+      <c r="G61" s="39"/>
+      <c r="H61" s="39"/>
+      <c r="I61" s="39"/>
+      <c r="J61" s="39"/>
+      <c r="K61" s="39"/>
+      <c r="L61" s="94" t="s">
         <v>111</v>
       </c>
-      <c r="M61" s="50"/>
-      <c r="N61" s="11"/>
-      <c r="O61" s="11"/>
-      <c r="P61" s="51" t="s">
+      <c r="M61" s="95"/>
+      <c r="N61" s="39"/>
+      <c r="O61" s="39"/>
+      <c r="P61" s="122" t="s">
         <v>162</v>
       </c>
-      <c r="Q61" s="52"/>
-      <c r="R61" s="11"/>
-      <c r="S61" s="11"/>
-      <c r="T61" s="11"/>
-      <c r="U61" s="11"/>
-      <c r="V61" s="11"/>
-      <c r="W61" s="11"/>
+      <c r="Q61" s="123"/>
+      <c r="R61" s="39"/>
+      <c r="S61" s="39"/>
+      <c r="T61" s="39"/>
+      <c r="U61" s="39"/>
+      <c r="V61" s="39"/>
+      <c r="W61" s="39"/>
     </row>
     <row r="62" spans="1:23" ht="6.75" customHeight="1">
-      <c r="A62" s="54"/>
-      <c r="B62" s="24"/>
-      <c r="C62" s="57"/>
-      <c r="D62" s="12"/>
-      <c r="E62" s="12"/>
-      <c r="F62" s="12"/>
-      <c r="G62" s="12"/>
-      <c r="H62" s="12"/>
-      <c r="I62" s="12"/>
-      <c r="J62" s="12"/>
-      <c r="K62" s="12"/>
-      <c r="L62" s="13" t="s">
+      <c r="A62" s="31"/>
+      <c r="B62" s="34"/>
+      <c r="C62" s="36"/>
+      <c r="D62" s="40"/>
+      <c r="E62" s="40"/>
+      <c r="F62" s="40"/>
+      <c r="G62" s="40"/>
+      <c r="H62" s="40"/>
+      <c r="I62" s="40"/>
+      <c r="J62" s="40"/>
+      <c r="K62" s="40"/>
+      <c r="L62" s="90" t="s">
         <v>163</v>
       </c>
-      <c r="M62" s="14"/>
-      <c r="N62" s="12"/>
-      <c r="O62" s="12"/>
-      <c r="P62" s="33" t="s">
+      <c r="M62" s="91"/>
+      <c r="N62" s="40"/>
+      <c r="O62" s="40"/>
+      <c r="P62" s="54" t="s">
         <v>164</v>
       </c>
-      <c r="Q62" s="34"/>
-      <c r="R62" s="12"/>
-      <c r="S62" s="12"/>
-      <c r="T62" s="12"/>
-      <c r="U62" s="12"/>
-      <c r="V62" s="12"/>
-      <c r="W62" s="12"/>
+      <c r="Q62" s="55"/>
+      <c r="R62" s="40"/>
+      <c r="S62" s="40"/>
+      <c r="T62" s="40"/>
+      <c r="U62" s="40"/>
+      <c r="V62" s="40"/>
+      <c r="W62" s="40"/>
     </row>
     <row r="63" spans="1:23" ht="6.75" customHeight="1">
-      <c r="A63" s="54"/>
-      <c r="B63" s="15" t="s">
+      <c r="A63" s="31"/>
+      <c r="B63" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="C63" s="35" t="s">
+      <c r="C63" s="56" t="s">
         <v>22</v>
       </c>
       <c r="D63" s="7" t="s">
@@ -11012,202 +11018,202 @@
       <c r="E63" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F63" s="11"/>
-      <c r="G63" s="11"/>
-      <c r="H63" s="37" t="s">
+      <c r="F63" s="39"/>
+      <c r="G63" s="39"/>
+      <c r="H63" s="112" t="s">
         <v>62</v>
       </c>
-      <c r="I63" s="38"/>
-      <c r="J63" s="11"/>
-      <c r="K63" s="11"/>
-      <c r="L63" s="41" t="s">
+      <c r="I63" s="113"/>
+      <c r="J63" s="39"/>
+      <c r="K63" s="39"/>
+      <c r="L63" s="134" t="s">
         <v>165</v>
       </c>
-      <c r="M63" s="42"/>
-      <c r="N63" s="11"/>
-      <c r="O63" s="11"/>
-      <c r="P63" s="45" t="s">
+      <c r="M63" s="135"/>
+      <c r="N63" s="39"/>
+      <c r="O63" s="39"/>
+      <c r="P63" s="139" t="s">
         <v>166</v>
       </c>
-      <c r="Q63" s="46"/>
-      <c r="R63" s="11"/>
-      <c r="S63" s="11"/>
-      <c r="T63" s="11"/>
-      <c r="U63" s="11"/>
-      <c r="V63" s="11"/>
-      <c r="W63" s="11"/>
+      <c r="Q63" s="140"/>
+      <c r="R63" s="39"/>
+      <c r="S63" s="39"/>
+      <c r="T63" s="39"/>
+      <c r="U63" s="39"/>
+      <c r="V63" s="39"/>
+      <c r="W63" s="39"/>
     </row>
     <row r="64" spans="1:23" ht="6.75" customHeight="1">
-      <c r="A64" s="54"/>
-      <c r="B64" s="16"/>
-      <c r="C64" s="36"/>
+      <c r="A64" s="31"/>
+      <c r="B64" s="42"/>
+      <c r="C64" s="57"/>
       <c r="D64" s="7" t="s">
         <v>120</v>
       </c>
       <c r="E64" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F64" s="12"/>
-      <c r="G64" s="12"/>
-      <c r="H64" s="39"/>
-      <c r="I64" s="40"/>
-      <c r="J64" s="12"/>
-      <c r="K64" s="12"/>
-      <c r="L64" s="43"/>
-      <c r="M64" s="44"/>
-      <c r="N64" s="12"/>
-      <c r="O64" s="12"/>
-      <c r="P64" s="47"/>
-      <c r="Q64" s="48"/>
-      <c r="R64" s="12"/>
-      <c r="S64" s="12"/>
-      <c r="T64" s="12"/>
-      <c r="U64" s="12"/>
-      <c r="V64" s="12"/>
-      <c r="W64" s="12"/>
+      <c r="F64" s="40"/>
+      <c r="G64" s="40"/>
+      <c r="H64" s="114"/>
+      <c r="I64" s="115"/>
+      <c r="J64" s="40"/>
+      <c r="K64" s="40"/>
+      <c r="L64" s="136"/>
+      <c r="M64" s="137"/>
+      <c r="N64" s="40"/>
+      <c r="O64" s="40"/>
+      <c r="P64" s="141"/>
+      <c r="Q64" s="142"/>
+      <c r="R64" s="40"/>
+      <c r="S64" s="40"/>
+      <c r="T64" s="40"/>
+      <c r="U64" s="40"/>
+      <c r="V64" s="40"/>
+      <c r="W64" s="40"/>
     </row>
     <row r="65" spans="1:23" ht="6.75" customHeight="1">
-      <c r="A65" s="54"/>
-      <c r="B65" s="15" t="s">
+      <c r="A65" s="31"/>
+      <c r="B65" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="C65" s="56" t="s">
+      <c r="C65" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="D65" s="19" t="s">
+      <c r="D65" s="92" t="s">
         <v>167</v>
       </c>
-      <c r="E65" s="20"/>
-      <c r="F65" s="11"/>
-      <c r="G65" s="11"/>
+      <c r="E65" s="93"/>
+      <c r="F65" s="39"/>
+      <c r="G65" s="39"/>
       <c r="H65" s="7" t="s">
         <v>58</v>
       </c>
       <c r="I65" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="J65" s="11"/>
-      <c r="K65" s="11"/>
-      <c r="L65" s="29" t="s">
+      <c r="J65" s="39"/>
+      <c r="K65" s="39"/>
+      <c r="L65" s="124" t="s">
         <v>129</v>
       </c>
-      <c r="M65" s="30"/>
-      <c r="N65" s="11"/>
-      <c r="O65" s="11"/>
-      <c r="P65" s="31" t="s">
+      <c r="M65" s="125"/>
+      <c r="N65" s="39"/>
+      <c r="O65" s="39"/>
+      <c r="P65" s="60" t="s">
         <v>122</v>
       </c>
-      <c r="Q65" s="32"/>
-      <c r="R65" s="11"/>
-      <c r="S65" s="11"/>
-      <c r="T65" s="11"/>
-      <c r="U65" s="11"/>
-      <c r="V65" s="11"/>
-      <c r="W65" s="11"/>
+      <c r="Q65" s="61"/>
+      <c r="R65" s="39"/>
+      <c r="S65" s="39"/>
+      <c r="T65" s="39"/>
+      <c r="U65" s="39"/>
+      <c r="V65" s="39"/>
+      <c r="W65" s="39"/>
     </row>
     <row r="66" spans="1:23" ht="6.75" customHeight="1">
-      <c r="A66" s="54"/>
-      <c r="B66" s="16"/>
-      <c r="C66" s="57"/>
-      <c r="D66" s="13" t="s">
+      <c r="A66" s="31"/>
+      <c r="B66" s="42"/>
+      <c r="C66" s="36"/>
+      <c r="D66" s="90" t="s">
         <v>163</v>
       </c>
-      <c r="E66" s="14"/>
-      <c r="F66" s="12"/>
-      <c r="G66" s="12"/>
+      <c r="E66" s="91"/>
+      <c r="F66" s="40"/>
+      <c r="G66" s="40"/>
       <c r="H66" s="7" t="s">
         <v>60</v>
       </c>
       <c r="I66" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="J66" s="12"/>
-      <c r="K66" s="12"/>
-      <c r="L66" s="21" t="s">
+      <c r="J66" s="40"/>
+      <c r="K66" s="40"/>
+      <c r="L66" s="82" t="s">
         <v>168</v>
       </c>
-      <c r="M66" s="22"/>
-      <c r="N66" s="12"/>
-      <c r="O66" s="12"/>
-      <c r="P66" s="13" t="s">
+      <c r="M66" s="83"/>
+      <c r="N66" s="40"/>
+      <c r="O66" s="40"/>
+      <c r="P66" s="90" t="s">
         <v>69</v>
       </c>
-      <c r="Q66" s="14"/>
-      <c r="R66" s="12"/>
-      <c r="S66" s="12"/>
-      <c r="T66" s="12"/>
-      <c r="U66" s="12"/>
-      <c r="V66" s="12"/>
-      <c r="W66" s="12"/>
+      <c r="Q66" s="91"/>
+      <c r="R66" s="40"/>
+      <c r="S66" s="40"/>
+      <c r="T66" s="40"/>
+      <c r="U66" s="40"/>
+      <c r="V66" s="40"/>
+      <c r="W66" s="40"/>
     </row>
     <row r="67" spans="1:23" ht="6.75" customHeight="1">
-      <c r="A67" s="54"/>
-      <c r="B67" s="23" t="s">
+      <c r="A67" s="31"/>
+      <c r="B67" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="C67" s="17" t="s">
+      <c r="C67" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="D67" s="25" t="s">
+      <c r="D67" s="143" t="s">
         <v>169</v>
       </c>
-      <c r="E67" s="26"/>
-      <c r="F67" s="11"/>
-      <c r="G67" s="11"/>
-      <c r="H67" s="25" t="s">
+      <c r="E67" s="144"/>
+      <c r="F67" s="39"/>
+      <c r="G67" s="39"/>
+      <c r="H67" s="143" t="s">
         <v>169</v>
       </c>
-      <c r="I67" s="26"/>
-      <c r="J67" s="11"/>
-      <c r="K67" s="11"/>
+      <c r="I67" s="144"/>
+      <c r="J67" s="39"/>
+      <c r="K67" s="39"/>
       <c r="L67" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="M67" s="11"/>
-      <c r="N67" s="11"/>
-      <c r="O67" s="11"/>
-      <c r="P67" s="11"/>
-      <c r="Q67" s="11"/>
-      <c r="R67" s="11"/>
-      <c r="S67" s="11"/>
-      <c r="T67" s="11"/>
-      <c r="U67" s="11"/>
-      <c r="V67" s="11"/>
-      <c r="W67" s="11"/>
+      <c r="M67" s="39"/>
+      <c r="N67" s="39"/>
+      <c r="O67" s="39"/>
+      <c r="P67" s="39"/>
+      <c r="Q67" s="39"/>
+      <c r="R67" s="39"/>
+      <c r="S67" s="39"/>
+      <c r="T67" s="39"/>
+      <c r="U67" s="39"/>
+      <c r="V67" s="39"/>
+      <c r="W67" s="39"/>
     </row>
     <row r="68" spans="1:23" ht="6.75" customHeight="1">
-      <c r="A68" s="54"/>
-      <c r="B68" s="24"/>
-      <c r="C68" s="18"/>
-      <c r="D68" s="27"/>
-      <c r="E68" s="28"/>
-      <c r="F68" s="12"/>
-      <c r="G68" s="12"/>
-      <c r="H68" s="27"/>
-      <c r="I68" s="28"/>
-      <c r="J68" s="12"/>
-      <c r="K68" s="12"/>
+      <c r="A68" s="31"/>
+      <c r="B68" s="34"/>
+      <c r="C68" s="44"/>
+      <c r="D68" s="145"/>
+      <c r="E68" s="146"/>
+      <c r="F68" s="40"/>
+      <c r="G68" s="40"/>
+      <c r="H68" s="145"/>
+      <c r="I68" s="146"/>
+      <c r="J68" s="40"/>
+      <c r="K68" s="40"/>
       <c r="L68" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="M68" s="12"/>
-      <c r="N68" s="12"/>
-      <c r="O68" s="12"/>
-      <c r="P68" s="12"/>
-      <c r="Q68" s="12"/>
-      <c r="R68" s="12"/>
-      <c r="S68" s="12"/>
-      <c r="T68" s="12"/>
-      <c r="U68" s="12"/>
-      <c r="V68" s="12"/>
-      <c r="W68" s="12"/>
+      <c r="M68" s="40"/>
+      <c r="N68" s="40"/>
+      <c r="O68" s="40"/>
+      <c r="P68" s="40"/>
+      <c r="Q68" s="40"/>
+      <c r="R68" s="40"/>
+      <c r="S68" s="40"/>
+      <c r="T68" s="40"/>
+      <c r="U68" s="40"/>
+      <c r="V68" s="40"/>
+      <c r="W68" s="40"/>
     </row>
     <row r="69" spans="1:23" ht="6.75" customHeight="1">
-      <c r="A69" s="54"/>
-      <c r="B69" s="15" t="s">
+      <c r="A69" s="31"/>
+      <c r="B69" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="C69" s="17" t="s">
+      <c r="C69" s="43" t="s">
         <v>51</v>
       </c>
       <c r="D69" s="7" t="s">
@@ -11216,60 +11222,60 @@
       <c r="E69" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F69" s="11"/>
-      <c r="G69" s="11"/>
-      <c r="H69" s="19" t="s">
+      <c r="F69" s="39"/>
+      <c r="G69" s="39"/>
+      <c r="H69" s="92" t="s">
         <v>167</v>
       </c>
-      <c r="I69" s="20"/>
-      <c r="J69" s="11"/>
-      <c r="K69" s="11"/>
-      <c r="L69" s="11"/>
-      <c r="M69" s="11"/>
-      <c r="N69" s="11"/>
-      <c r="O69" s="11"/>
-      <c r="P69" s="11"/>
-      <c r="Q69" s="11"/>
-      <c r="R69" s="11"/>
-      <c r="S69" s="11"/>
-      <c r="T69" s="11"/>
-      <c r="U69" s="11"/>
-      <c r="V69" s="11"/>
-      <c r="W69" s="11"/>
+      <c r="I69" s="93"/>
+      <c r="J69" s="39"/>
+      <c r="K69" s="39"/>
+      <c r="L69" s="39"/>
+      <c r="M69" s="39"/>
+      <c r="N69" s="39"/>
+      <c r="O69" s="39"/>
+      <c r="P69" s="39"/>
+      <c r="Q69" s="39"/>
+      <c r="R69" s="39"/>
+      <c r="S69" s="39"/>
+      <c r="T69" s="39"/>
+      <c r="U69" s="39"/>
+      <c r="V69" s="39"/>
+      <c r="W69" s="39"/>
     </row>
     <row r="70" spans="1:23" ht="6.75" customHeight="1">
-      <c r="A70" s="54"/>
-      <c r="B70" s="16"/>
-      <c r="C70" s="18"/>
+      <c r="A70" s="31"/>
+      <c r="B70" s="42"/>
+      <c r="C70" s="44"/>
       <c r="D70" s="7" t="s">
         <v>60</v>
       </c>
       <c r="E70" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F70" s="12"/>
-      <c r="G70" s="12"/>
-      <c r="H70" s="13" t="s">
+      <c r="F70" s="40"/>
+      <c r="G70" s="40"/>
+      <c r="H70" s="90" t="s">
         <v>163</v>
       </c>
-      <c r="I70" s="14"/>
-      <c r="J70" s="12"/>
-      <c r="K70" s="12"/>
-      <c r="L70" s="12"/>
-      <c r="M70" s="12"/>
-      <c r="N70" s="12"/>
-      <c r="O70" s="12"/>
-      <c r="P70" s="12"/>
-      <c r="Q70" s="12"/>
-      <c r="R70" s="12"/>
-      <c r="S70" s="12"/>
-      <c r="T70" s="12"/>
-      <c r="U70" s="12"/>
-      <c r="V70" s="12"/>
-      <c r="W70" s="12"/>
+      <c r="I70" s="91"/>
+      <c r="J70" s="40"/>
+      <c r="K70" s="40"/>
+      <c r="L70" s="40"/>
+      <c r="M70" s="40"/>
+      <c r="N70" s="40"/>
+      <c r="O70" s="40"/>
+      <c r="P70" s="40"/>
+      <c r="Q70" s="40"/>
+      <c r="R70" s="40"/>
+      <c r="S70" s="40"/>
+      <c r="T70" s="40"/>
+      <c r="U70" s="40"/>
+      <c r="V70" s="40"/>
+      <c r="W70" s="40"/>
     </row>
     <row r="71" spans="1:23" ht="9.6" customHeight="1">
-      <c r="A71" s="55"/>
+      <c r="A71" s="32"/>
       <c r="B71" s="6" t="s">
         <v>170</v>
       </c>
@@ -11299,162 +11305,442 @@
     </row>
   </sheetData>
   <mergeCells count="628">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:C4"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="R2:U2"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="A5:A15"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="U5:U6"/>
-    <mergeCell ref="V5:V6"/>
-    <mergeCell ref="W5:W6"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q8"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="R7:R8"/>
-    <mergeCell ref="S7:S8"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:V8"/>
-    <mergeCell ref="W7:W8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:E10"/>
-    <mergeCell ref="F9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="P9:Q10"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="T9:U10"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:K12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="R11:R12"/>
-    <mergeCell ref="S11:S12"/>
-    <mergeCell ref="T11:T12"/>
-    <mergeCell ref="U11:U12"/>
-    <mergeCell ref="V11:V12"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="W11:W12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="P13:P14"/>
-    <mergeCell ref="Q13:Q14"/>
-    <mergeCell ref="R13:R14"/>
-    <mergeCell ref="S13:S14"/>
-    <mergeCell ref="T13:T14"/>
-    <mergeCell ref="U13:U14"/>
-    <mergeCell ref="V13:V14"/>
-    <mergeCell ref="W13:W14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="R16:R17"/>
-    <mergeCell ref="S16:S17"/>
-    <mergeCell ref="T16:T17"/>
-    <mergeCell ref="U16:U17"/>
-    <mergeCell ref="V16:V17"/>
-    <mergeCell ref="A16:A27"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="J69:J70"/>
+    <mergeCell ref="K69:K70"/>
+    <mergeCell ref="L69:L70"/>
+    <mergeCell ref="M69:M70"/>
+    <mergeCell ref="W69:W70"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="N69:N70"/>
+    <mergeCell ref="O69:O70"/>
+    <mergeCell ref="P69:P70"/>
+    <mergeCell ref="Q69:Q70"/>
+    <mergeCell ref="R69:R70"/>
+    <mergeCell ref="S69:S70"/>
+    <mergeCell ref="T69:T70"/>
+    <mergeCell ref="U69:U70"/>
+    <mergeCell ref="V69:V70"/>
+    <mergeCell ref="W65:W66"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="D67:E68"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="H67:I68"/>
+    <mergeCell ref="J67:J68"/>
+    <mergeCell ref="K67:K68"/>
+    <mergeCell ref="M67:M68"/>
+    <mergeCell ref="N67:N68"/>
+    <mergeCell ref="O67:O68"/>
+    <mergeCell ref="P67:P68"/>
+    <mergeCell ref="Q67:Q68"/>
+    <mergeCell ref="R67:R68"/>
+    <mergeCell ref="S67:S68"/>
+    <mergeCell ref="T67:T68"/>
+    <mergeCell ref="U67:U68"/>
+    <mergeCell ref="V67:V68"/>
+    <mergeCell ref="W67:W68"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="T65:T66"/>
+    <mergeCell ref="U65:U66"/>
+    <mergeCell ref="V65:V66"/>
+    <mergeCell ref="U61:U62"/>
+    <mergeCell ref="V61:V62"/>
+    <mergeCell ref="O61:O62"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="R61:R62"/>
+    <mergeCell ref="S61:S62"/>
+    <mergeCell ref="T61:T62"/>
+    <mergeCell ref="W61:W62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="H63:I64"/>
+    <mergeCell ref="J63:J64"/>
+    <mergeCell ref="K63:K64"/>
+    <mergeCell ref="L63:M64"/>
+    <mergeCell ref="N63:N64"/>
+    <mergeCell ref="O63:O64"/>
+    <mergeCell ref="P63:Q64"/>
+    <mergeCell ref="R63:R64"/>
+    <mergeCell ref="S63:S64"/>
+    <mergeCell ref="T63:T64"/>
+    <mergeCell ref="U63:U64"/>
+    <mergeCell ref="V63:V64"/>
+    <mergeCell ref="W63:W64"/>
+    <mergeCell ref="J61:J62"/>
+    <mergeCell ref="K61:K62"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:N62"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="A61:A71"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="I61:I62"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="J65:J66"/>
+    <mergeCell ref="K65:K66"/>
+    <mergeCell ref="M58:M59"/>
+    <mergeCell ref="N58:N59"/>
+    <mergeCell ref="O58:O59"/>
+    <mergeCell ref="P58:P59"/>
+    <mergeCell ref="Q58:Q59"/>
+    <mergeCell ref="R58:R59"/>
+    <mergeCell ref="S58:S59"/>
+    <mergeCell ref="N65:N66"/>
+    <mergeCell ref="O65:O66"/>
+    <mergeCell ref="P65:Q65"/>
+    <mergeCell ref="R65:R66"/>
+    <mergeCell ref="S65:S66"/>
+    <mergeCell ref="V58:V59"/>
+    <mergeCell ref="W58:W59"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="F58:G59"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="J58:J59"/>
+    <mergeCell ref="K58:K59"/>
+    <mergeCell ref="L58:L59"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="N56:N57"/>
+    <mergeCell ref="O56:O57"/>
+    <mergeCell ref="P56:P57"/>
+    <mergeCell ref="Q56:Q57"/>
+    <mergeCell ref="R56:R57"/>
+    <mergeCell ref="S56:S57"/>
+    <mergeCell ref="V56:W57"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:E57"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="J56:J57"/>
+    <mergeCell ref="K56:K57"/>
+    <mergeCell ref="L56:L57"/>
+    <mergeCell ref="M56:M57"/>
+    <mergeCell ref="N54:N55"/>
+    <mergeCell ref="O54:O55"/>
+    <mergeCell ref="P54:P55"/>
+    <mergeCell ref="Q54:Q55"/>
+    <mergeCell ref="R54:S54"/>
+    <mergeCell ref="T54:U54"/>
+    <mergeCell ref="V54:W54"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="R55:S55"/>
+    <mergeCell ref="T55:U55"/>
+    <mergeCell ref="V55:W55"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="J54:J55"/>
+    <mergeCell ref="K54:K55"/>
+    <mergeCell ref="L54:L55"/>
+    <mergeCell ref="M54:M55"/>
+    <mergeCell ref="T50:T51"/>
+    <mergeCell ref="U50:U51"/>
+    <mergeCell ref="V50:W50"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="R51:S51"/>
+    <mergeCell ref="V51:W51"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="J52:J53"/>
+    <mergeCell ref="K52:K53"/>
+    <mergeCell ref="L52:L53"/>
+    <mergeCell ref="M52:M53"/>
+    <mergeCell ref="N52:N53"/>
+    <mergeCell ref="O52:O53"/>
+    <mergeCell ref="P52:P53"/>
+    <mergeCell ref="Q52:Q53"/>
+    <mergeCell ref="R52:S53"/>
+    <mergeCell ref="T52:U52"/>
+    <mergeCell ref="V52:W53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="T53:U53"/>
+    <mergeCell ref="P47:P48"/>
+    <mergeCell ref="Q47:Q48"/>
+    <mergeCell ref="R47:S48"/>
+    <mergeCell ref="T47:T48"/>
+    <mergeCell ref="U47:U48"/>
+    <mergeCell ref="V47:W47"/>
+    <mergeCell ref="V48:W48"/>
+    <mergeCell ref="A50:A60"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="J50:J51"/>
+    <mergeCell ref="K50:K51"/>
+    <mergeCell ref="L50:L51"/>
+    <mergeCell ref="M50:M51"/>
+    <mergeCell ref="N50:N51"/>
+    <mergeCell ref="O50:O51"/>
+    <mergeCell ref="P50:P51"/>
+    <mergeCell ref="Q50:Q51"/>
+    <mergeCell ref="R50:S50"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="K47:K48"/>
+    <mergeCell ref="L47:L48"/>
+    <mergeCell ref="M47:M48"/>
+    <mergeCell ref="N47:N48"/>
+    <mergeCell ref="O47:O48"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="P45:P46"/>
+    <mergeCell ref="Q45:Q46"/>
+    <mergeCell ref="R45:S45"/>
+    <mergeCell ref="T45:U45"/>
+    <mergeCell ref="V45:V46"/>
+    <mergeCell ref="W45:W46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="R46:S46"/>
+    <mergeCell ref="T46:U46"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="J43:K44"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O44"/>
+    <mergeCell ref="P43:P44"/>
+    <mergeCell ref="Q43:Q44"/>
+    <mergeCell ref="R43:S44"/>
+    <mergeCell ref="T43:U44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="W39:W40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="P41:P42"/>
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="R41:R42"/>
+    <mergeCell ref="S41:S42"/>
+    <mergeCell ref="T41:U41"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="T42:U42"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="P39:P40"/>
+    <mergeCell ref="Q39:Q40"/>
+    <mergeCell ref="R39:R40"/>
+    <mergeCell ref="S39:S40"/>
+    <mergeCell ref="T39:T40"/>
+    <mergeCell ref="U39:U40"/>
+    <mergeCell ref="V39:V40"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="A39:A49"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:E48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="V34:W34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="V35:W35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="L36:L37"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="O36:O37"/>
+    <mergeCell ref="R36:R37"/>
+    <mergeCell ref="S36:S37"/>
+    <mergeCell ref="T36:T37"/>
+    <mergeCell ref="U36:U37"/>
+    <mergeCell ref="V36:V37"/>
+    <mergeCell ref="W36:W37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="P32:Q33"/>
+    <mergeCell ref="R32:S32"/>
+    <mergeCell ref="T32:U33"/>
+    <mergeCell ref="V32:W32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="R33:S33"/>
+    <mergeCell ref="V33:W33"/>
+    <mergeCell ref="N34:N35"/>
+    <mergeCell ref="O34:O35"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="R34:R35"/>
+    <mergeCell ref="S34:S35"/>
+    <mergeCell ref="T34:T35"/>
+    <mergeCell ref="U34:U35"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O33"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P30:P31"/>
+    <mergeCell ref="Q30:Q31"/>
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="T30:U31"/>
+    <mergeCell ref="V30:W31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="R31:S31"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="L34:L35"/>
+    <mergeCell ref="N28:O29"/>
+    <mergeCell ref="P28:P29"/>
+    <mergeCell ref="Q28:Q29"/>
+    <mergeCell ref="R28:S28"/>
+    <mergeCell ref="T28:U28"/>
+    <mergeCell ref="V28:V29"/>
+    <mergeCell ref="W28:W29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="R29:S29"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:M29"/>
+    <mergeCell ref="J30:K31"/>
+    <mergeCell ref="L30:M31"/>
+    <mergeCell ref="P26:P27"/>
+    <mergeCell ref="Q26:Q27"/>
+    <mergeCell ref="R26:R27"/>
+    <mergeCell ref="S26:S27"/>
+    <mergeCell ref="T26:T27"/>
+    <mergeCell ref="U26:U27"/>
+    <mergeCell ref="V26:V27"/>
+    <mergeCell ref="W26:W27"/>
+    <mergeCell ref="A28:A38"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="N26:N27"/>
+    <mergeCell ref="O26:O27"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="Q24:Q25"/>
+    <mergeCell ref="T24:T25"/>
+    <mergeCell ref="U24:U25"/>
+    <mergeCell ref="V24:W24"/>
+    <mergeCell ref="V25:W25"/>
+    <mergeCell ref="V20:W21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="O22:O23"/>
+    <mergeCell ref="P22:P23"/>
+    <mergeCell ref="Q22:Q23"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="V22:W22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="T23:U23"/>
+    <mergeCell ref="V23:W23"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
     <mergeCell ref="W16:W17"/>
     <mergeCell ref="N17:O17"/>
     <mergeCell ref="P17:Q17"/>
@@ -11479,454 +11765,174 @@
     <mergeCell ref="L16:L17"/>
     <mergeCell ref="M16:M17"/>
     <mergeCell ref="N16:O16"/>
+    <mergeCell ref="A16:A27"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="H24:I25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="W11:W12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="P13:P14"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="R13:R14"/>
+    <mergeCell ref="S13:S14"/>
+    <mergeCell ref="T13:T14"/>
+    <mergeCell ref="U13:U14"/>
+    <mergeCell ref="V13:V14"/>
+    <mergeCell ref="W13:W14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="R11:R12"/>
+    <mergeCell ref="S11:S12"/>
+    <mergeCell ref="T11:T12"/>
+    <mergeCell ref="U11:U12"/>
+    <mergeCell ref="V11:V12"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="R16:R17"/>
+    <mergeCell ref="S16:S17"/>
+    <mergeCell ref="T16:T17"/>
+    <mergeCell ref="U16:U17"/>
+    <mergeCell ref="V16:V17"/>
     <mergeCell ref="J20:K21"/>
     <mergeCell ref="L20:M21"/>
     <mergeCell ref="N20:O20"/>
     <mergeCell ref="P20:Q20"/>
     <mergeCell ref="R20:S20"/>
     <mergeCell ref="T20:U21"/>
-    <mergeCell ref="V20:W21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="O22:O23"/>
-    <mergeCell ref="P22:P23"/>
-    <mergeCell ref="Q22:Q23"/>
-    <mergeCell ref="T22:U22"/>
-    <mergeCell ref="V22:W22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="T23:U23"/>
-    <mergeCell ref="V23:W23"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H24:I25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="O24:O25"/>
-    <mergeCell ref="P24:P25"/>
-    <mergeCell ref="Q24:Q25"/>
-    <mergeCell ref="T24:T25"/>
-    <mergeCell ref="U24:U25"/>
-    <mergeCell ref="V24:W24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="V25:W25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="N26:N27"/>
-    <mergeCell ref="O26:O27"/>
-    <mergeCell ref="P26:P27"/>
-    <mergeCell ref="Q26:Q27"/>
-    <mergeCell ref="R26:R27"/>
-    <mergeCell ref="S26:S27"/>
-    <mergeCell ref="T26:T27"/>
-    <mergeCell ref="U26:U27"/>
-    <mergeCell ref="V26:V27"/>
-    <mergeCell ref="W26:W27"/>
-    <mergeCell ref="A28:A38"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L28:M29"/>
-    <mergeCell ref="N28:O29"/>
-    <mergeCell ref="P28:P29"/>
-    <mergeCell ref="Q28:Q29"/>
-    <mergeCell ref="R28:S28"/>
-    <mergeCell ref="T28:U28"/>
-    <mergeCell ref="V28:V29"/>
-    <mergeCell ref="W28:W29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="R29:S29"/>
-    <mergeCell ref="T29:U29"/>
-    <mergeCell ref="J30:K31"/>
-    <mergeCell ref="L30:M31"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="P30:P31"/>
-    <mergeCell ref="Q30:Q31"/>
-    <mergeCell ref="R30:S30"/>
-    <mergeCell ref="T30:U31"/>
-    <mergeCell ref="V30:W31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="R31:S31"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="K34:K35"/>
-    <mergeCell ref="L34:L35"/>
-    <mergeCell ref="U36:U37"/>
-    <mergeCell ref="V36:V37"/>
-    <mergeCell ref="W36:W37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="P32:Q33"/>
-    <mergeCell ref="R32:S32"/>
-    <mergeCell ref="T32:U33"/>
-    <mergeCell ref="V32:W32"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="R33:S33"/>
-    <mergeCell ref="V33:W33"/>
-    <mergeCell ref="N34:N35"/>
-    <mergeCell ref="O34:O35"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="R34:R35"/>
-    <mergeCell ref="S34:S35"/>
-    <mergeCell ref="T34:T35"/>
-    <mergeCell ref="U34:U35"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="N32:O33"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:E48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="V34:W34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="V35:W35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="L36:L37"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="O36:O37"/>
-    <mergeCell ref="R36:R37"/>
-    <mergeCell ref="S36:S37"/>
-    <mergeCell ref="T36:T37"/>
-    <mergeCell ref="P39:P40"/>
-    <mergeCell ref="Q39:Q40"/>
-    <mergeCell ref="R39:R40"/>
-    <mergeCell ref="S39:S40"/>
-    <mergeCell ref="T39:T40"/>
-    <mergeCell ref="U39:U40"/>
-    <mergeCell ref="V39:V40"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="A39:A49"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="W39:W40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="P41:P42"/>
-    <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="R41:R42"/>
-    <mergeCell ref="S41:S42"/>
-    <mergeCell ref="T41:U41"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="T42:U42"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="J43:K44"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="N43:O44"/>
-    <mergeCell ref="P43:P44"/>
-    <mergeCell ref="Q43:Q44"/>
-    <mergeCell ref="R43:S44"/>
-    <mergeCell ref="T43:U44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="P45:P46"/>
-    <mergeCell ref="Q45:Q46"/>
-    <mergeCell ref="R45:S45"/>
-    <mergeCell ref="T45:U45"/>
-    <mergeCell ref="V45:V46"/>
-    <mergeCell ref="W45:W46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="R46:S46"/>
-    <mergeCell ref="T46:U46"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="K47:K48"/>
-    <mergeCell ref="L47:L48"/>
-    <mergeCell ref="M47:M48"/>
-    <mergeCell ref="N47:N48"/>
-    <mergeCell ref="O47:O48"/>
-    <mergeCell ref="P47:P48"/>
-    <mergeCell ref="Q47:Q48"/>
-    <mergeCell ref="R47:S48"/>
-    <mergeCell ref="T47:T48"/>
-    <mergeCell ref="U47:U48"/>
-    <mergeCell ref="V47:W47"/>
-    <mergeCell ref="V48:W48"/>
-    <mergeCell ref="A50:A60"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="J50:J51"/>
-    <mergeCell ref="K50:K51"/>
-    <mergeCell ref="L50:L51"/>
-    <mergeCell ref="M50:M51"/>
-    <mergeCell ref="N50:N51"/>
-    <mergeCell ref="O50:O51"/>
-    <mergeCell ref="P50:P51"/>
-    <mergeCell ref="Q50:Q51"/>
-    <mergeCell ref="R50:S50"/>
-    <mergeCell ref="T50:T51"/>
-    <mergeCell ref="U50:U51"/>
-    <mergeCell ref="V50:W50"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="R51:S51"/>
-    <mergeCell ref="V51:W51"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="J52:J53"/>
-    <mergeCell ref="K52:K53"/>
-    <mergeCell ref="L52:L53"/>
-    <mergeCell ref="M52:M53"/>
-    <mergeCell ref="N52:N53"/>
-    <mergeCell ref="O52:O53"/>
-    <mergeCell ref="P52:P53"/>
-    <mergeCell ref="Q52:Q53"/>
-    <mergeCell ref="R52:S53"/>
-    <mergeCell ref="T52:U52"/>
-    <mergeCell ref="V52:W53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="T53:U53"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="H54:H55"/>
-    <mergeCell ref="J54:J55"/>
-    <mergeCell ref="K54:K55"/>
-    <mergeCell ref="L54:L55"/>
-    <mergeCell ref="M54:M55"/>
-    <mergeCell ref="N54:N55"/>
-    <mergeCell ref="O54:O55"/>
-    <mergeCell ref="P54:P55"/>
-    <mergeCell ref="Q54:Q55"/>
-    <mergeCell ref="R54:S54"/>
-    <mergeCell ref="T54:U54"/>
-    <mergeCell ref="V54:W54"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="R55:S55"/>
-    <mergeCell ref="T55:U55"/>
-    <mergeCell ref="V55:W55"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D56:E57"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="J56:J57"/>
-    <mergeCell ref="K56:K57"/>
-    <mergeCell ref="L56:L57"/>
-    <mergeCell ref="M56:M57"/>
-    <mergeCell ref="N56:N57"/>
-    <mergeCell ref="O56:O57"/>
-    <mergeCell ref="P56:P57"/>
-    <mergeCell ref="Q56:Q57"/>
-    <mergeCell ref="R56:R57"/>
-    <mergeCell ref="S56:S57"/>
-    <mergeCell ref="V56:W57"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="V58:V59"/>
-    <mergeCell ref="W58:W59"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="F58:G59"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="J58:J59"/>
-    <mergeCell ref="K58:K59"/>
-    <mergeCell ref="L58:L59"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="J65:J66"/>
-    <mergeCell ref="K65:K66"/>
-    <mergeCell ref="M58:M59"/>
-    <mergeCell ref="N58:N59"/>
-    <mergeCell ref="O58:O59"/>
-    <mergeCell ref="P58:P59"/>
-    <mergeCell ref="Q58:Q59"/>
-    <mergeCell ref="R58:R59"/>
-    <mergeCell ref="S58:S59"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="A61:A71"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="H61:H62"/>
-    <mergeCell ref="I61:I62"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="W61:W62"/>
-    <mergeCell ref="L62:M62"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="H63:I64"/>
-    <mergeCell ref="J63:J64"/>
-    <mergeCell ref="K63:K64"/>
-    <mergeCell ref="L63:M64"/>
-    <mergeCell ref="N63:N64"/>
-    <mergeCell ref="O63:O64"/>
-    <mergeCell ref="P63:Q64"/>
-    <mergeCell ref="R63:R64"/>
-    <mergeCell ref="S63:S64"/>
-    <mergeCell ref="T63:T64"/>
-    <mergeCell ref="U63:U64"/>
-    <mergeCell ref="V63:V64"/>
-    <mergeCell ref="W63:W64"/>
-    <mergeCell ref="J61:J62"/>
-    <mergeCell ref="K61:K62"/>
-    <mergeCell ref="L61:M61"/>
-    <mergeCell ref="N61:N62"/>
-    <mergeCell ref="N65:N66"/>
-    <mergeCell ref="O65:O66"/>
-    <mergeCell ref="P65:Q65"/>
-    <mergeCell ref="R65:R66"/>
-    <mergeCell ref="S65:S66"/>
-    <mergeCell ref="T65:T66"/>
-    <mergeCell ref="U65:U66"/>
-    <mergeCell ref="V65:V66"/>
-    <mergeCell ref="U61:U62"/>
-    <mergeCell ref="V61:V62"/>
-    <mergeCell ref="O61:O62"/>
-    <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="R61:R62"/>
-    <mergeCell ref="S61:S62"/>
-    <mergeCell ref="T61:T62"/>
-    <mergeCell ref="W65:W66"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="L66:M66"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="D67:E68"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="H67:I68"/>
-    <mergeCell ref="J67:J68"/>
-    <mergeCell ref="K67:K68"/>
-    <mergeCell ref="M67:M68"/>
-    <mergeCell ref="N67:N68"/>
-    <mergeCell ref="O67:O68"/>
-    <mergeCell ref="P67:P68"/>
-    <mergeCell ref="Q67:Q68"/>
-    <mergeCell ref="R67:R68"/>
-    <mergeCell ref="S67:S68"/>
-    <mergeCell ref="T67:T68"/>
-    <mergeCell ref="U67:U68"/>
-    <mergeCell ref="V67:V68"/>
-    <mergeCell ref="W67:W68"/>
-    <mergeCell ref="L65:M65"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="J69:J70"/>
-    <mergeCell ref="K69:K70"/>
-    <mergeCell ref="L69:L70"/>
-    <mergeCell ref="M69:M70"/>
-    <mergeCell ref="W69:W70"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="N69:N70"/>
-    <mergeCell ref="O69:O70"/>
-    <mergeCell ref="P69:P70"/>
-    <mergeCell ref="Q69:Q70"/>
-    <mergeCell ref="R69:R70"/>
-    <mergeCell ref="S69:S70"/>
-    <mergeCell ref="T69:T70"/>
-    <mergeCell ref="U69:U70"/>
-    <mergeCell ref="V69:V70"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:K12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:V8"/>
+    <mergeCell ref="W7:W8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:E10"/>
+    <mergeCell ref="F9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="P9:Q10"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="T9:U10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q8"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="S7:S8"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="U5:U6"/>
+    <mergeCell ref="V5:V6"/>
+    <mergeCell ref="W5:W6"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="A5:A15"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:C4"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="R2:U2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="T3:U3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
